--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -64,7 +64,7 @@
     <t>Strategy_&amp;_Business_Development_Team</t>
   </si>
   <si>
-    <t>Digital_Support_PMO_Team</t>
+    <t xml:space="preserve">Digital_Support_PMO_Team </t>
   </si>
   <si>
     <t>Market_Entry_PMO_Team</t>
@@ -73,7 +73,7 @@
     <t>Market_Expansion_Planning</t>
   </si>
   <si>
-    <t>Regional_Operations_Support_Team</t>
+    <t xml:space="preserve">Regional_Operations_Support_Team </t>
   </si>
   <si>
     <t>Fleet_Operation_Team</t>
@@ -121,7 +121,7 @@
     <t>Network_Development_Team</t>
   </si>
   <si>
-    <t>Service_Coordinator_Team</t>
+    <t xml:space="preserve">Service_Coordinator _Team </t>
   </si>
   <si>
     <t>Training_Team</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="165">
   <si>
     <t>Department</t>
   </si>
@@ -479,6 +479,36 @@
   </si>
   <si>
     <t>shaohua_guo</t>
+  </si>
+  <si>
+    <t>Sales_Operation</t>
+  </si>
+  <si>
+    <t>Power_Operation</t>
+  </si>
+  <si>
+    <t>System_Development</t>
+  </si>
+  <si>
+    <t>Market_Entry_and_Operation</t>
+  </si>
+  <si>
+    <t>Service_Operation</t>
+  </si>
+  <si>
+    <t>Network_Infrastructure</t>
+  </si>
+  <si>
+    <t>User_Development</t>
+  </si>
+  <si>
+    <t>User_Relation + SCR</t>
+  </si>
+  <si>
+    <t>Training_Operation</t>
+  </si>
+  <si>
+    <t>Backend_Support_Unit</t>
   </si>
 </sst>
 </file>
@@ -907,6 +937,9 @@
       <c r="G3" t="s">
         <v>124</v>
       </c>
+      <c r="H3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -924,6 +957,9 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -940,6 +976,9 @@
       </c>
       <c r="E5" t="s">
         <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -964,6 +1003,9 @@
       <c r="G6" t="s">
         <v>125</v>
       </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
@@ -987,6 +1029,9 @@
       <c r="G7" t="s">
         <v>126</v>
       </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -1004,6 +1049,9 @@
       <c r="E8" t="s">
         <v>72</v>
       </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -1021,6 +1069,9 @@
       <c r="E9" t="s">
         <v>72</v>
       </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -1038,6 +1089,9 @@
       <c r="E10" t="s">
         <v>72</v>
       </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -1061,6 +1115,9 @@
       <c r="G11" t="s">
         <v>127</v>
       </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -1084,6 +1141,9 @@
       <c r="G12" t="s">
         <v>128</v>
       </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
@@ -1107,6 +1167,9 @@
       <c r="G13" t="s">
         <v>129</v>
       </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
@@ -1130,6 +1193,9 @@
       <c r="G14" t="s">
         <v>130</v>
       </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
@@ -1147,6 +1213,9 @@
       <c r="E15" t="s">
         <v>74</v>
       </c>
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
@@ -1170,8 +1239,11 @@
       <c r="G16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1187,8 +1259,11 @@
       <c r="E17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1204,8 +1279,11 @@
       <c r="E18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1221,8 +1299,11 @@
       <c r="E19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1244,8 +1325,11 @@
       <c r="G20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1261,8 +1345,11 @@
       <c r="E21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1284,8 +1371,11 @@
       <c r="G22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1301,8 +1391,11 @@
       <c r="E23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1324,8 +1417,11 @@
       <c r="G24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1341,8 +1437,11 @@
       <c r="E25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1358,8 +1457,11 @@
       <c r="E26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1381,8 +1483,11 @@
       <c r="G27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1398,8 +1503,11 @@
       <c r="E28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1421,8 +1529,11 @@
       <c r="G29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1444,8 +1555,11 @@
       <c r="G30" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1467,8 +1581,11 @@
       <c r="G31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1490,8 +1607,11 @@
       <c r="G32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1504,8 +1624,11 @@
       <c r="D33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1519,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1535,8 +1658,11 @@
       <c r="E35" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1552,8 +1678,11 @@
       <c r="E36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1569,8 +1698,11 @@
       <c r="E37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1586,8 +1718,11 @@
       <c r="E38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1603,8 +1738,11 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1620,8 +1758,11 @@
       <c r="E40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1634,8 +1775,11 @@
       <c r="D41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1648,8 +1792,11 @@
       <c r="D42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1662,8 +1809,11 @@
       <c r="D43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1676,8 +1826,11 @@
       <c r="D44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1691,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1702,7 +1855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1715,8 +1868,11 @@
       <c r="D47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1738,8 +1894,11 @@
       <c r="G48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1761,8 +1920,11 @@
       <c r="G49" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1784,8 +1946,11 @@
       <c r="G50" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1807,8 +1972,11 @@
       <c r="G51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1830,8 +1998,11 @@
       <c r="G52" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1853,8 +2024,11 @@
       <c r="G53" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1876,8 +2050,11 @@
       <c r="G54" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1899,8 +2076,11 @@
       <c r="G55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1922,8 +2102,11 @@
       <c r="G56" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1945,8 +2128,11 @@
       <c r="G57" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1965,8 +2151,11 @@
       <c r="F58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1985,8 +2174,11 @@
       <c r="F59" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2008,8 +2200,11 @@
       <c r="G60" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2031,8 +2226,11 @@
       <c r="G61" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2054,8 +2252,11 @@
       <c r="G62" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2077,8 +2278,11 @@
       <c r="G63" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2097,8 +2301,11 @@
       <c r="F64" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2120,8 +2327,11 @@
       <c r="G65" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2143,8 +2353,11 @@
       <c r="G66" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2160,8 +2373,11 @@
       <c r="E67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2177,8 +2393,11 @@
       <c r="E68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2194,8 +2413,11 @@
       <c r="E69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2211,8 +2433,11 @@
       <c r="E70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2234,8 +2459,11 @@
       <c r="G71" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2258,7 +2486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2281,7 +2509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2304,7 +2532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2327,7 +2555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="230">
   <si>
     <t>Department</t>
   </si>
@@ -37,13 +37,16 @@
     <t>Belongs to Department_Class</t>
   </si>
   <si>
+    <t>Capability</t>
+  </si>
+  <si>
     <t>European_Business</t>
   </si>
   <si>
-    <t>Business_Development_Team</t>
-  </si>
-  <si>
-    <t>Business_Intelligence_&amp;_Analytics_Team</t>
+    <t>Business_Development</t>
+  </si>
+  <si>
+    <t>Business_Intelligence</t>
   </si>
   <si>
     <t>Fleet_Planning_Team</t>
@@ -52,7 +55,7 @@
     <t>KA_Management_Team</t>
   </si>
   <si>
-    <t>Revenue_Management_Team</t>
+    <t>Commercial_Product</t>
   </si>
   <si>
     <t>Market_Launch_&amp;_Enabling_Team</t>
@@ -64,7 +67,7 @@
     <t>Strategy_&amp;_Business_Development_Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Digital_Support_PMO_Team </t>
+    <t xml:space="preserve">Digital_PMO_Team </t>
   </si>
   <si>
     <t>Market_Entry_PMO_Team</t>
@@ -79,7 +82,7 @@
     <t>Fleet_Operation_Team</t>
   </si>
   <si>
-    <t>Service_&amp;_Product_PMO_Team</t>
+    <t>Service_PMO</t>
   </si>
   <si>
     <t>Service_Planning_Team</t>
@@ -91,25 +94,25 @@
     <t>Spare_Parts_Team</t>
   </si>
   <si>
-    <t>Construction_Management_Team</t>
-  </si>
-  <si>
-    <t>Cost_Management_Team</t>
-  </si>
-  <si>
-    <t>Design_Management_Team</t>
-  </si>
-  <si>
-    <t>NIO_House_Management_Team</t>
-  </si>
-  <si>
-    <t>PMO_Infrastructure_Team</t>
+    <t>Construction_Management</t>
+  </si>
+  <si>
+    <t>Cost_Management</t>
+  </si>
+  <si>
+    <t>Design_Management</t>
+  </si>
+  <si>
+    <t>NIO_House_Operation</t>
+  </si>
+  <si>
+    <t>PMO_Infrastructure</t>
   </si>
   <si>
     <t>Content_Team</t>
   </si>
   <si>
-    <t>Events_Team</t>
+    <t>Event</t>
   </si>
   <si>
     <t>MarComm_Team</t>
@@ -118,16 +121,16 @@
     <t>Public_Relationship_Team</t>
   </si>
   <si>
-    <t>Network_Development_Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service_Coordinator _Team </t>
+    <t>Network_Development</t>
+  </si>
+  <si>
+    <t>Service_Coordinator</t>
   </si>
   <si>
     <t>Training_Team</t>
   </si>
   <si>
-    <t>UserRelations_Team</t>
+    <t>UserRelations</t>
   </si>
   <si>
     <t>Power_Management_Team_Germany_Company</t>
@@ -154,21 +157,18 @@
     <t>UserRelationship_Team_Denmark_Company</t>
   </si>
   <si>
-    <t>EU_HRBP</t>
-  </si>
-  <si>
-    <t>EB_Finance</t>
-  </si>
-  <si>
-    <t>EU_Legal</t>
+    <t>Europe_Business_HRBP_Department</t>
+  </si>
+  <si>
+    <t>Controlling_and_Planning_Department</t>
+  </si>
+  <si>
+    <t>Legal_EU_Department</t>
   </si>
   <si>
     <t>EU_Purchase</t>
   </si>
   <si>
-    <t>PMK</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -226,7 +226,7 @@
     <t>UserRelations_Team_Germany_Company</t>
   </si>
   <si>
-    <t>Europe_Commercial_Operation_Department</t>
+    <t>Europe_Commercial_Operation</t>
   </si>
   <si>
     <t>Europe_Project_Management_&amp;_Enabling_Department</t>
@@ -235,13 +235,13 @@
     <t>Europe_Power_Operation_Department</t>
   </si>
   <si>
-    <t>Europe_Space_Experience_Department</t>
+    <t>Europe_Space_Experience</t>
   </si>
   <si>
     <t>Europe_Service_Operation_Department</t>
   </si>
   <si>
-    <t>Europe_UserDevelopment_Department</t>
+    <t>Europe_UserDevelopment</t>
   </si>
   <si>
     <t>Europe_UserOperation_Department</t>
@@ -262,6 +262,66 @@
     <t>NIO_Denmark_Company</t>
   </si>
   <si>
+    <t>Partner_Strategy</t>
+  </si>
+  <si>
+    <t>EPX_PMO</t>
+  </si>
+  <si>
+    <t>Retail_Sales</t>
+  </si>
+  <si>
+    <t>Fleet_&amp;_Business_Sales</t>
+  </si>
+  <si>
+    <t>Sales_Planning</t>
+  </si>
+  <si>
+    <t>Europe_Business_Operation</t>
+  </si>
+  <si>
+    <t>Communication_&amp;_PR</t>
+  </si>
+  <si>
+    <t>Operation_Support</t>
+  </si>
+  <si>
+    <t>Parts_&amp;_Logistics</t>
+  </si>
+  <si>
+    <t>EU_Legal_Department</t>
+  </si>
+  <si>
+    <t>Operational_Procurement</t>
+  </si>
+  <si>
+    <t>Planning_Department</t>
+  </si>
+  <si>
+    <t>Europe_Product_Experience_Department</t>
+  </si>
+  <si>
+    <t>Product_Marketing_Department_PMK</t>
+  </si>
+  <si>
+    <t>Sales_Product_Group</t>
+  </si>
+  <si>
+    <t>EHS</t>
+  </si>
+  <si>
+    <t>Power_Operation</t>
+  </si>
+  <si>
+    <t>Power_Market_Launch_&amp;_Enabling_Team</t>
+  </si>
+  <si>
+    <t>EU_PMK</t>
+  </si>
+  <si>
+    <t>Digital_Development_PMO_Team</t>
+  </si>
+  <si>
     <t>LINK</t>
   </si>
   <si>
@@ -271,6 +331,9 @@
     <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
   </si>
   <si>
+    <t>derk_timmer</t>
+  </si>
+  <si>
     <t>chan_jun,jochen_elster,ryan_stodden</t>
   </si>
   <si>
@@ -292,12 +355,18 @@
     <t>wenlu_ma,lisong_meng,johnny_cheung,jerry_liu3,echo_zeng,yang_huang,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu</t>
   </si>
   <si>
+    <t>jasper_deman</t>
+  </si>
+  <si>
     <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
   </si>
   <si>
     <t>luis_portas,fernanda_mejia,gregory_anderson</t>
   </si>
   <si>
+    <t>joachim_pach</t>
+  </si>
+  <si>
     <t>dale_li,brian_zhang</t>
   </si>
   <si>
@@ -316,6 +385,15 @@
     <t>jorry_zhou,anastasiia_kovalenko,hongyi_ji,kangrui_wang</t>
   </si>
   <si>
+    <t>arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye</t>
+  </si>
+  <si>
+    <t>moritz_wefelscheid</t>
+  </si>
+  <si>
+    <t>finn_xue</t>
+  </si>
+  <si>
     <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
   </si>
   <si>
@@ -388,6 +466,21 @@
     <t>ralph_kranz</t>
   </si>
   <si>
+    <t>Helen_Baerbock</t>
+  </si>
+  <si>
+    <t>brian_zhang</t>
+  </si>
+  <si>
+    <t>johnny_cheung</t>
+  </si>
+  <si>
+    <t>dongxiao_sun</t>
+  </si>
+  <si>
+    <t>sarah_ding</t>
+  </si>
+  <si>
     <t>ranee_miao</t>
   </si>
   <si>
@@ -418,13 +511,10 @@
     <t>luis_portas</t>
   </si>
   <si>
-    <t>brian_zhang</t>
-  </si>
-  <si>
     <t>laura_peschke</t>
   </si>
   <si>
-    <t>bob_valk,sven_conrad</t>
+    <t>bob_valk</t>
   </si>
   <si>
     <t>philip_aschendorf</t>
@@ -436,6 +526,12 @@
     <t>hongyi_ji</t>
   </si>
   <si>
+    <t>yu_huang6</t>
+  </si>
+  <si>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
     <t>andreas_roehl</t>
   </si>
   <si>
@@ -463,7 +559,7 @@
     <t>an_ho</t>
   </si>
   <si>
-    <t>kenneth_forslund,niklas_gustafson</t>
+    <t>niklas_gustafson</t>
   </si>
   <si>
     <t>dejvid_noinovic</t>
@@ -481,12 +577,30 @@
     <t>shaohua_guo</t>
   </si>
   <si>
+    <t>matt_galvin,chenqi_peng</t>
+  </si>
+  <si>
+    <t>matt_galvin</t>
+  </si>
+  <si>
+    <t>zhen_lai</t>
+  </si>
+  <si>
+    <t>benjamin_steinmetz</t>
+  </si>
+  <si>
+    <t>niklas_andersson</t>
+  </si>
+  <si>
+    <t>yue_ma2</t>
+  </si>
+  <si>
+    <t>_henry_shen</t>
+  </si>
+  <si>
     <t>Sales_Operation</t>
   </si>
   <si>
-    <t>Power_Operation</t>
-  </si>
-  <si>
     <t>System_Development</t>
   </si>
   <si>
@@ -502,13 +616,94 @@
     <t>User_Development</t>
   </si>
   <si>
-    <t>User_Relation + SCR</t>
+    <t>User Relation + SCR</t>
   </si>
   <si>
     <t>Training_Operation</t>
   </si>
   <si>
     <t>Backend_Support_Unit</t>
+  </si>
+  <si>
+    <t>EB-BD-Retail_Financing,EB-BD-LeaseCo_Development</t>
+  </si>
+  <si>
+    <t>EB-UO-Business_Intelligence</t>
+  </si>
+  <si>
+    <t>EB-UO-Subscription_Product_&amp;_management,EB-UO-Commercial_Product</t>
+  </si>
+  <si>
+    <t>EB-Enabling-Project_Management</t>
+  </si>
+  <si>
+    <t>EB-Enabling-Market_Planning</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Planning</t>
+  </si>
+  <si>
+    <t>EB-ND-Construction_Management</t>
+  </si>
+  <si>
+    <t>EB-ND-Design_Management</t>
+  </si>
+  <si>
+    <t>EB-ND-NIO_House_Operation</t>
+  </si>
+  <si>
+    <t>EB-UD-Events</t>
+  </si>
+  <si>
+    <t>EB-ND-Network_Development</t>
+  </si>
+  <si>
+    <t>EB-Satisfaction-SCR</t>
+  </si>
+  <si>
+    <t>EB-Enabling-Training</t>
+  </si>
+  <si>
+    <t>EB-Satisfaction-Satisfaction_Operation,EB-Community-NIO_Point_&amp;_Value,EB-Community-Community_Events,EB-Community-Community_Development,EB-Community-Referral_Development,EB-Community-IP_Management</t>
+  </si>
+  <si>
+    <t>COE-HR-Culture_Development,COE-HR-Organization_Development,COE-HR-Recruiting,COE-HR-Salary_Management,COE-HR-SSC_Management,COE-HR-EHS</t>
+  </si>
+  <si>
+    <t>COE-Finance-Controling,COE-Finance-Finance_Planning,COE-Finance-Finance_Admin,COE-Finance-Accounting,COE-Finance-Tax</t>
+  </si>
+  <si>
+    <t>COE-Legal-EU_Legal</t>
+  </si>
+  <si>
+    <t>COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch</t>
+  </si>
+  <si>
+    <t>EB-UO-LOTD_Operation</t>
+  </si>
+  <si>
+    <t>EB-UO-2B_Business_Product</t>
+  </si>
+  <si>
+    <t>EB-UD-Communication,EB-UD-PR</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Operation</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Parts_&amp;_Logistics_</t>
+  </si>
+  <si>
+    <t>COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation</t>
+  </si>
+  <si>
+    <t>COE-PE-Product_Planning,COE-PE-Product_Experience,COE-PE-Vehicle_Quality</t>
+  </si>
+  <si>
+    <t>COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Power-LTO</t>
+  </si>
+  <si>
+    <t>COE-Digital-Digital_Product_Launch,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_System_Operation</t>
   </si>
 </sst>
 </file>
@@ -866,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,36 +1089,39 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -932,24 +1130,27 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -957,19 +1158,28 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
       <c r="H4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -978,18 +1188,18 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -998,24 +1208,24 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1024,24 +1234,27 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1050,18 +1263,18 @@
         <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1070,18 +1283,18 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1090,18 +1303,18 @@
         <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1110,24 +1323,24 @@
         <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1136,24 +1349,27 @@
         <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1162,24 +1378,27 @@
         <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1188,24 +1407,24 @@
         <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1214,18 +1433,18 @@
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1234,24 +1453,24 @@
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1259,19 +1478,28 @@
       <c r="E17" t="s">
         <v>74</v>
       </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
       <c r="H17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1280,18 +1508,18 @@
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1300,18 +1528,18 @@
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1320,24 +1548,27 @@
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1346,18 +1577,18 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1366,24 +1597,27 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1391,19 +1625,28 @@
       <c r="E23" t="s">
         <v>73</v>
       </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
       <c r="H23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1412,24 +1655,24 @@
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1438,18 +1681,18 @@
         <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1457,19 +1700,28 @@
       <c r="E26" t="s">
         <v>75</v>
       </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
       <c r="H26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1478,24 +1730,24 @@
         <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1504,18 +1756,18 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1524,24 +1776,27 @@
         <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1550,24 +1805,27 @@
         <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1576,24 +1834,27 @@
         <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1602,55 +1863,58 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1659,18 +1923,18 @@
         <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1679,18 +1943,18 @@
         <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1699,18 +1963,18 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1719,18 +1983,18 @@
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1739,18 +2003,18 @@
         <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1759,143 +2023,188 @@
         <v>81</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
+      <c r="G41" t="s">
+        <v>170</v>
+      </c>
       <c r="H41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
+      <c r="F42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
       <c r="H42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
       <c r="H43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>172</v>
+      </c>
       <c r="H47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1903,25 +2212,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1929,25 +2238,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1955,25 +2264,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1981,10 +2290,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1993,13 +2302,13 @@
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2007,25 +2316,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2033,25 +2342,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2059,25 +2368,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2085,25 +2394,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2111,10 +2420,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -2123,13 +2432,10 @@
         <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2137,22 +2443,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,10 +2466,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2172,10 +2478,13 @@
         <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>138</v>
+      </c>
+      <c r="G59" t="s">
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2183,25 +2492,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G60" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="H60" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2209,25 +2518,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2235,25 +2544,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2261,10 +2570,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -2273,13 +2582,10 @@
         <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H63" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2287,289 +2593,676 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
+        <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="H65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" t="s">
+        <v>145</v>
       </c>
       <c r="H70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+      <c r="I79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" t="s">
+        <v>152</v>
+      </c>
+      <c r="I92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" t="s">
+        <v>191</v>
+      </c>
+      <c r="I97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
+      <c r="I101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G103" t="s">
+        <v>193</v>
+      </c>
+      <c r="I103" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -301,7 +301,7 @@
     <t>Europe_Product_Experience_Department</t>
   </si>
   <si>
-    <t>Product_Marketing_Department_PMK</t>
+    <t>Product_Marketing_Department_(PMK)</t>
   </si>
   <si>
     <t>Sales_Product_Group</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="229">
   <si>
     <t>Department</t>
   </si>
@@ -169,9 +169,6 @@
     <t>EU_Purchase</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>NIO_Life</t>
   </si>
   <si>
@@ -304,7 +301,7 @@
     <t>Product_Marketing_Department_(PMK)</t>
   </si>
   <si>
-    <t>Sales_Product_Group</t>
+    <t>(Digital)_Sales_Product_Group</t>
   </si>
   <si>
     <t>EHS</t>
@@ -397,7 +394,7 @@
     <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
   </si>
   <si>
-    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,0,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,0,kristiane_larsson,per_brandvik,0,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
+    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
   </si>
   <si>
     <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
@@ -472,6 +469,9 @@
     <t>brian_zhang</t>
   </si>
   <si>
+    <t>matt_galvin</t>
+  </si>
+  <si>
     <t>johnny_cheung</t>
   </si>
   <si>
@@ -580,9 +580,6 @@
     <t>matt_galvin,chenqi_peng</t>
   </si>
   <si>
-    <t>matt_galvin</t>
-  </si>
-  <si>
     <t>zhen_lai</t>
   </si>
   <si>
@@ -667,7 +664,7 @@
     <t>EB-Satisfaction-Satisfaction_Operation,EB-Community-NIO_Point_&amp;_Value,EB-Community-Community_Events,EB-Community-Community_Development,EB-Community-Referral_Development,EB-Community-IP_Management</t>
   </si>
   <si>
-    <t>COE-HR-Culture_Development,COE-HR-Organization_Development,COE-HR-Recruiting,COE-HR-Salary_Management,COE-HR-SSC_Management,COE-HR-EHS</t>
+    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery</t>
   </si>
   <si>
     <t>COE-Finance-Controling,COE-Finance-Finance_Planning,COE-Finance-Finance_Admin,COE-Finance-Accounting,COE-Finance-Tax</t>
@@ -1061,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1121,25 +1118,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
         <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1150,25 +1147,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1179,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1199,22 +1196,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1225,25 +1222,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1254,16 +1251,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1274,16 +1271,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1294,16 +1291,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1314,22 +1311,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1340,25 +1337,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1369,25 +1366,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1398,22 +1395,22 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1424,16 +1421,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1444,22 +1441,22 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
         <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1470,25 +1467,25 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1499,16 +1496,16 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1519,16 +1516,16 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1539,25 +1536,25 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
         <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1568,16 +1565,16 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1588,25 +1585,25 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
         <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1617,25 +1614,25 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1646,22 +1643,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1672,16 +1669,16 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1692,25 +1689,25 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
         <v>102</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1721,22 +1718,22 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
         <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1747,16 +1744,16 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1767,25 +1764,25 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
         <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1796,25 +1793,25 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
         <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1825,25 +1822,25 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
         <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1854,25 +1851,25 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
         <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1883,13 +1880,16 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1900,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1914,16 +1914,16 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1934,16 +1934,16 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1954,16 +1954,16 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1974,16 +1974,16 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1994,16 +1994,16 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2014,16 +2014,16 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2034,19 +2034,16 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
         <v>170</v>
       </c>
       <c r="H41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2057,22 +2054,19 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
         <v>171</v>
       </c>
       <c r="H42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2083,22 +2077,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2109,13 +2100,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2126,7 +2114,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2137,22 +2137,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2163,22 +2163,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
         <v>126</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2189,22 +2189,22 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s">
         <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2215,22 +2215,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
         <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2241,22 +2241,22 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
         <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2267,22 +2267,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
         <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2293,22 +2293,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s">
         <v>131</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2319,22 +2319,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
         <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2345,22 +2345,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
         <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2371,7 +2371,7 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>134</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2397,22 +2397,19 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
         <v>135</v>
       </c>
-      <c r="G56" t="s">
-        <v>181</v>
-      </c>
       <c r="H56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2423,19 +2420,19 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
         <v>136</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2446,19 +2443,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
         <v>137</v>
       </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2469,22 +2469,22 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
         <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2495,22 +2495,22 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
         <v>139</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2521,22 +2521,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
         <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2547,19 +2547,16 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s">
         <v>141</v>
-      </c>
-      <c r="G62" t="s">
-        <v>185</v>
       </c>
       <c r="H62" t="s">
         <v>199</v>
@@ -2573,19 +2570,22 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
         <v>142</v>
       </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2596,7 +2596,7 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2608,10 +2608,10 @@
         <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2622,7 +2622,7 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2630,14 +2630,8 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F65" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" t="s">
-        <v>186</v>
-      </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2648,7 +2642,7 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2657,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2668,7 +2662,7 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2677,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2688,7 +2682,7 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2697,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2708,7 +2702,7 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2716,8 +2710,14 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
+      <c r="F69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2728,7 +2728,7 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2741,9 +2741,6 @@
       </c>
       <c r="G70" t="s">
         <v>145</v>
-      </c>
-      <c r="H70" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2754,7 +2751,7 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2777,7 +2774,7 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2800,7 +2797,7 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2823,19 +2820,13 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2846,13 +2837,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" t="s">
+        <v>149</v>
+      </c>
+      <c r="H75" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2863,19 +2863,22 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
         <v>150</v>
       </c>
       <c r="G76" t="s">
         <v>150</v>
+      </c>
+      <c r="H76" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2886,19 +2889,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s">
-        <v>151</v>
+        <v>187</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2909,16 +2915,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="H78" t="s">
+        <v>193</v>
       </c>
       <c r="I78" t="s">
         <v>221</v>
@@ -2932,19 +2941,19 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>188</v>
-      </c>
-      <c r="I79" t="s">
-        <v>222</v>
+        <v>151</v>
+      </c>
+      <c r="H79" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2955,80 +2964,188 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
       </c>
       <c r="G80" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="H80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
       <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s">
         <v>102</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
+        <v>198</v>
+      </c>
+      <c r="I81" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" t="s">
+        <v>196</v>
+      </c>
+      <c r="I82" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" t="s">
+        <v>152</v>
+      </c>
+      <c r="H83" t="s">
+        <v>196</v>
+      </c>
+      <c r="I83" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H84" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" t="s">
+        <v>201</v>
+      </c>
+      <c r="I85" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>189</v>
+      </c>
+      <c r="H87" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" t="s">
+        <v>201</v>
+      </c>
+      <c r="I88" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3036,10 +3153,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s">
+        <v>191</v>
+      </c>
+      <c r="H89" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3047,19 +3170,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s">
-        <v>103</v>
-      </c>
-      <c r="I90" t="s">
-        <v>223</v>
+        <v>101</v>
+      </c>
+      <c r="H90" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3067,19 +3184,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
-      </c>
-      <c r="I91" t="s">
-        <v>224</v>
+        <v>153</v>
+      </c>
+      <c r="H91" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3087,19 +3204,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="H92" t="s">
+        <v>97</v>
       </c>
       <c r="I92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3107,10 +3227,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3118,151 +3241,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="H94" t="s">
+        <v>201</v>
       </c>
       <c r="I94" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>102</v>
-      </c>
-      <c r="G96" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" t="s">
-        <v>191</v>
-      </c>
-      <c r="I97" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="F100" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-      <c r="F101" t="s">
-        <v>154</v>
-      </c>
-      <c r="G101" t="s">
-        <v>154</v>
-      </c>
-      <c r="I101" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="G103" t="s">
-        <v>193</v>
-      </c>
-      <c r="I103" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="275">
   <si>
     <t>Department</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Real SOP Writer</t>
   </si>
   <si>
-    <t>DE Counterpart</t>
+    <t>Approver</t>
   </si>
   <si>
     <t>NO Counterpart</t>
@@ -58,6 +58,9 @@
     <t>NL Counterpart</t>
   </si>
   <si>
+    <t>Belongs to Topic</t>
+  </si>
+  <si>
     <t>Digital_Development_PMO_Team</t>
   </si>
   <si>
@@ -88,13 +91,10 @@
     <t>Business_Development</t>
   </si>
   <si>
-    <t>Market_Expansion_Planning</t>
-  </si>
-  <si>
-    <t>Market_Entry_PMO_Team</t>
-  </si>
-  <si>
-    <t>Training_Team</t>
+    <t>Europe_Market_Planning</t>
+  </si>
+  <si>
+    <t>_Europe_Business_Enabling</t>
   </si>
   <si>
     <t>Construction_Management</t>
@@ -106,226 +106,193 @@
     <t>NIO_House_Operation</t>
   </si>
   <si>
+    <t>Service_PMO</t>
+  </si>
+  <si>
+    <t>Operation_Support</t>
+  </si>
+  <si>
+    <t>Parts_and_Logistics</t>
+  </si>
+  <si>
+    <t>Service_Planning</t>
+  </si>
+  <si>
+    <t>Communication_and_PR</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Fleet_and_Business_Sales</t>
+  </si>
+  <si>
+    <t>Business_Intelligence</t>
+  </si>
+  <si>
+    <t>Partner_Strategy</t>
+  </si>
+  <si>
+    <t>Commercial_Product</t>
+  </si>
+  <si>
+    <t>Sales_Planning</t>
+  </si>
+  <si>
+    <t>Market_Launch_and_Enabling_Team</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation_Team</t>
+  </si>
+  <si>
+    <t>Strategy_and_Business_Development_Team</t>
+  </si>
+  <si>
+    <t>Retall_Sales</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Europe_Commercial_Operation</t>
+  </si>
+  <si>
+    <t>Europe_Power_Operation</t>
+  </si>
+  <si>
+    <t>Europe_Space_Experience</t>
+  </si>
+  <si>
+    <t>Europe_Service_Operation</t>
+  </si>
+  <si>
+    <t>Europe_User_Development</t>
+  </si>
+  <si>
+    <t>NIO_Norway</t>
+  </si>
+  <si>
+    <t>NIO_Sweden</t>
+  </si>
+  <si>
+    <t>NIO_Netherlands</t>
+  </si>
+  <si>
+    <t>NIO_Germany</t>
+  </si>
+  <si>
+    <t>NIO_Denmark</t>
+  </si>
+  <si>
+    <t>Europe_Business_Operation</t>
+  </si>
+  <si>
+    <t>Power_Management_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>UserRelationship_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>UserOperations_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>Service_Operations_Team_Denmark_Company</t>
+  </si>
+  <si>
+    <t>Power_Management_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>Service_Operations_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>UserOperations_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>UserRelations_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>Power_Management_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>UserRelationship_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>UserOperations_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>Service_Operations_Team_Netherlands_Company</t>
+  </si>
+  <si>
+    <t>Service_Team_Norway_Company</t>
+  </si>
+  <si>
+    <t>UserTeam_Norway_Company</t>
+  </si>
+  <si>
+    <t>Power_Management_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>UserOperations_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>Service_Operations_Team_Sweden_Company</t>
+  </si>
+  <si>
+    <t>European_Business</t>
+  </si>
+  <si>
+    <t>Power_Operation</t>
+  </si>
+  <si>
+    <t>NIO_Belgium_and_Luxembourg</t>
+  </si>
+  <si>
+    <t>NIO_UK</t>
+  </si>
+  <si>
     <t>Network_Development</t>
   </si>
   <si>
-    <t>Service_PMO</t>
-  </si>
-  <si>
-    <t>Operation_Support</t>
-  </si>
-  <si>
-    <t>Parts_and_Logistics</t>
-  </si>
-  <si>
-    <t>Service_Planning_Team</t>
+    <t>User_Relations_Management</t>
   </si>
   <si>
     <t>Service_Coordinator</t>
   </si>
   <si>
-    <t>UserRelations</t>
-  </si>
-  <si>
-    <t>Communication_and_PR</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Fleet_and_Business_Sales</t>
-  </si>
-  <si>
-    <t>Business_Intelligence</t>
-  </si>
-  <si>
-    <t>Retail_Sales</t>
-  </si>
-  <si>
-    <t>Partner_Strategy</t>
-  </si>
-  <si>
-    <t>Commercial_Product</t>
-  </si>
-  <si>
-    <t>Sales_Planning</t>
-  </si>
-  <si>
-    <t>Fleet_Planning_Team</t>
-  </si>
-  <si>
-    <t>KA_Management_Team</t>
-  </si>
-  <si>
-    <t>Market_Launch_and_Enabling_Team</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team</t>
-  </si>
-  <si>
-    <t>Strategy_and_Business_Development_Team</t>
-  </si>
-  <si>
-    <t>Digital_PMO_Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional_Operations_Support_Team </t>
-  </si>
-  <si>
-    <t>Fleet_Operation_Team</t>
-  </si>
-  <si>
-    <t>Service_Quality_Team</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Team</t>
-  </si>
-  <si>
-    <t>Cost_Management</t>
-  </si>
-  <si>
-    <t>PMO_Infrastructure</t>
-  </si>
-  <si>
-    <t>EPX_PMO</t>
-  </si>
-  <si>
-    <t>Content_Team</t>
-  </si>
-  <si>
-    <t>MarComm_Team</t>
-  </si>
-  <si>
-    <t>Public_Relationship_Team</t>
-  </si>
-  <si>
-    <t>Europe_Commercial_Operation</t>
-  </si>
-  <si>
-    <t>Europe_Project_Management_and_Enabling_Department</t>
-  </si>
-  <si>
-    <t>Europe_Power_Operation_Department</t>
-  </si>
-  <si>
-    <t>Europe_Space_Experience</t>
-  </si>
-  <si>
-    <t>Europe_Service_Operation_Department</t>
-  </si>
-  <si>
-    <t>Europe_UserDevelopment</t>
-  </si>
-  <si>
-    <t>Europe_UserOperation_Department</t>
-  </si>
-  <si>
-    <t>NIO_Norway_Company</t>
-  </si>
-  <si>
-    <t>NIO_Sweden_Company</t>
-  </si>
-  <si>
-    <t>NIO_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>NIO_Germany_Company</t>
-  </si>
-  <si>
-    <t>NIO_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Europe_Business_Operation</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserRelationship_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserRelations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserRelationship_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Service_Team_Norway_Company</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>European_Business</t>
-  </si>
-  <si>
-    <t>All_Departments</t>
-  </si>
-  <si>
-    <t>EHS</t>
-  </si>
-  <si>
-    <t>Power_Operation</t>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>NIO_Austria</t>
+  </si>
+  <si>
+    <t>NIO_Switzerland</t>
   </si>
   <si>
     <t>Click Me</t>
   </si>
   <si>
-    <t>_henry_shen</t>
+    <t>henry_shen</t>
   </si>
   <si>
     <t>arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye</t>
@@ -346,252 +313,285 @@
     <t>niklas_andersson</t>
   </si>
   <si>
+    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
+  </si>
+  <si>
+    <t>christian_rebo</t>
+  </si>
+  <si>
+    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
+  </si>
+  <si>
+    <t>bella_lin,yantao_zhou,daisy_xiao,tristan_vonballuseck,zoey_li1,christian_sieling,anastasia_kozachenko,caesar_qian</t>
+  </si>
+  <si>
+    <t>heming_li,shuang_wu3,di_hu1,wanli_ren,ziye_chen,winnie_wu1,wenchao_cui1,charlotte_liu1,sarah_opfer,chen_gong,helen_baerbock,hiroshi_watari,qianling_duan</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
+  </si>
+  <si>
+    <t>luis_portas,fernanda_mejia,gregory_anderson,tim_weener</t>
+  </si>
+  <si>
+    <t>joachim_pach</t>
+  </si>
+  <si>
+    <t>wenlu_ma,jerry_liu3,echo_zeng,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu,zitong_pan</t>
+  </si>
+  <si>
+    <t>jasper_deman</t>
+  </si>
+  <si>
+    <t>johnny_cheung,yang_huang,wenwen_jiang</t>
+  </si>
+  <si>
+    <t>lisong_meng</t>
+  </si>
+  <si>
+    <t>chris_chen1,alissia_lehle,anastasia_kozachenko,anja_plank1,veronica_akerblad,charilaos_kantas,marina_paradiso,julia_bock,julia_lichtmannecker</t>
+  </si>
+  <si>
+    <t>chris_chen1</t>
+  </si>
+  <si>
+    <t>derk_timmer,arun_paragh,boris_mihailovic,catherine_zhu</t>
+  </si>
+  <si>
+    <t>helen_baerbock</t>
+  </si>
+  <si>
+    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
+  </si>
+  <si>
+    <t>yujie_jia,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>chenqi_peng,timo_herrmann,julie_jiang,alexandre_gallo,sven_conrad,manuel_endres,jiabao_xu</t>
+  </si>
+  <si>
+    <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
+  </si>
+  <si>
+    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden</t>
+  </si>
+  <si>
+    <t>alexander_kunith,wouter_hollander,Tina_FAN</t>
+  </si>
+  <si>
+    <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
+  </si>
+  <si>
+    <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
+  </si>
+  <si>
+    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,vlad_tarverdov,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,karam_alnafous,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
+  </si>
+  <si>
+    <t>marius_hayler</t>
+  </si>
+  <si>
+    <t>mattias_lundgren</t>
+  </si>
+  <si>
+    <t>robin_roosenstein,ruben_keuter</t>
+  </si>
+  <si>
+    <t>ralph_kranz</t>
+  </si>
+  <si>
+    <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
+  </si>
+  <si>
+    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
+  </si>
+  <si>
+    <t>christian_neergaard</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
+  </si>
+  <si>
+    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
+  </si>
+  <si>
+    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
+  </si>
+  <si>
+    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
+  </si>
+  <si>
+    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous,vlad_tarverdov</t>
+  </si>
+  <si>
+    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
+  </si>
+  <si>
+    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
+  </si>
+  <si>
+    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
+  </si>
+  <si>
+    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
+  </si>
+  <si>
+    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
+  </si>
+  <si>
+    <t>gustaf_sjoeholm,erica_blomberg</t>
+  </si>
+  <si>
+    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
+  </si>
+  <si>
+    <t>louise_johansson</t>
+  </si>
+  <si>
+    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
+  </si>
+  <si>
+    <t>dongxiao_sun</t>
+  </si>
+  <si>
+    <t>akos_kiss,alice_bontridder,loic_helleputte</t>
+  </si>
+  <si>
+    <t>tom_wharfe,matt_galvin,jon_higgins</t>
+  </si>
+  <si>
+    <t>bob_valk,simon_mueller,koen_peters,_jianwei_yin</t>
+  </si>
+  <si>
+    <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
+  </si>
+  <si>
+    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,richard_vermeulen,juliane_weinschenk,ana_bjelcic_o,andre_tollefsen,attila_hudetz,vassil_loukarsky_o,sheilla_campos_o,chi_lo_o,dennis_mujic,emilia_dera_o,fredrik_aslund1,gergo_almasi,martin_olsson,marc_bloch</t>
+  </si>
+  <si>
+    <t>scott_baines,joris_coolen</t>
+  </si>
+  <si>
+    <t>martin_rieder</t>
+  </si>
+  <si>
+    <t>gerald_krainer</t>
+  </si>
+  <si>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
     <t>sarah_ding</t>
   </si>
   <si>
-    <t>christian_rebo</t>
-  </si>
-  <si>
-    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
-  </si>
-  <si>
-    <t>christian_sieling,anastasia_yu,daisy_xiao,tristan_vonballuseck,caesar_qian,zoey_li1</t>
-  </si>
-  <si>
-    <t>di_hu1,wenchao_cui1,ziye_chen,winnie_wu1,chen_gong,sarah_opfer,qianling_duan,wanli_ren</t>
-  </si>
-  <si>
-    <t>scott_baines,joris_coolen</t>
-  </si>
-  <si>
-    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
-  </si>
-  <si>
-    <t>luis_portas,fernanda_mejia,gregory_anderson</t>
-  </si>
-  <si>
-    <t>joachim_pach</t>
-  </si>
-  <si>
-    <t>sven_conrad,bob_valk,simon_mueller,koen_peters</t>
-  </si>
-  <si>
-    <t>wenlu_ma,lisong_meng,johnny_cheung,jerry_liu3,echo_zeng,yang_huang,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu</t>
-  </si>
-  <si>
-    <t>jasper_deman</t>
+    <t>ranee_miao</t>
+  </si>
+  <si>
+    <t>christian_sieling</t>
+  </si>
+  <si>
+    <t>chen_gong</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson</t>
+  </si>
+  <si>
+    <t>luis_portas</t>
+  </si>
+  <si>
+    <t>wenlu_ma</t>
   </si>
   <si>
     <t>johnny_cheung</t>
   </si>
   <si>
-    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,erik_penning,richard_vermeulen,juliane_weinschenk</t>
-  </si>
-  <si>
-    <t>jorry_zhou,anastasiia_kovalenko,hongyi_ji,kangrui_wang</t>
-  </si>
-  <si>
-    <t>chris_chen1</t>
+    <t>akos_kiss</t>
   </si>
   <si>
     <t>derk_timmer</t>
   </si>
   <si>
-    <t>Helen_Baerbock</t>
-  </si>
-  <si>
-    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio</t>
-  </si>
-  <si>
-    <t>chan_jun,jochen_elster,ryan_stodden</t>
-  </si>
-  <si>
-    <t>hailee_han,jing_hu,charlotte_liu1,zitong_pan,meiling_wu,daniel_gao,hun_huang</t>
-  </si>
-  <si>
-    <t>chenqi_peng,yujie_jia,timo_herrmann,julie_jiang</t>
-  </si>
-  <si>
-    <t>dale_li,brian_zhang</t>
+    <t>paolo_cova</t>
+  </si>
+  <si>
+    <t>chenqi_peng</t>
   </si>
   <si>
     <t>brian_zhang</t>
   </si>
   <si>
-    <t>novak_birisic,anastasia_kozachenko,marina_paradiso,laura_peschke,alissia_lehle,daniel_wadle,julia_bock,veronica_akerblad</t>
-  </si>
-  <si>
     <t>thijs_meijling</t>
   </si>
   <si>
-    <t>shaohua_guo,sizhe_huang</t>
-  </si>
-  <si>
-    <t>gerald_krainer</t>
-  </si>
-  <si>
-    <t>marius_hayler</t>
-  </si>
-  <si>
-    <t>mattias_lundgren</t>
-  </si>
-  <si>
-    <t>robin_roosenstein,ruben_keuter</t>
-  </si>
-  <si>
-    <t>ralph_kranz</t>
+    <t>shaohua_guo</t>
+  </si>
+  <si>
+    <t>ruben_keuter</t>
+  </si>
+  <si>
+    <t>rasmus_huus</t>
+  </si>
+  <si>
+    <t>anja_bruun</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic</t>
+  </si>
+  <si>
+    <t>andreas_roehl</t>
+  </si>
+  <si>
+    <t>elise_chen</t>
+  </si>
+  <si>
+    <t>christian_wiegand</t>
+  </si>
+  <si>
+    <t>tristan_hamelink</t>
+  </si>
+  <si>
+    <t>silvia_leeuw</t>
+  </si>
+  <si>
+    <t>onno_duimel</t>
+  </si>
+  <si>
+    <t>sadia_Aden_Mohamed</t>
+  </si>
+  <si>
+    <t>an_ho</t>
+  </si>
+  <si>
+    <t>erica_blomberg</t>
+  </si>
+  <si>
+    <t>niklas_gustafson</t>
+  </si>
+  <si>
+    <t>andreas_loeoev</t>
+  </si>
+  <si>
+    <t>alice_bontridder</t>
   </si>
   <si>
     <t>matt_galvin</t>
   </si>
   <si>
-    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
-  </si>
-  <si>
-    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
-  </si>
-  <si>
-    <t>christian_neergaard</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
-  </si>
-  <si>
-    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
-  </si>
-  <si>
-    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
-  </si>
-  <si>
-    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
-  </si>
-  <si>
-    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous</t>
-  </si>
-  <si>
-    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
-  </si>
-  <si>
-    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
-  </si>
-  <si>
-    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
-  </si>
-  <si>
-    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
-  </si>
-  <si>
-    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
-  </si>
-  <si>
-    <t>gustaf_sjoeholm,erica_blomberg</t>
-  </si>
-  <si>
-    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
-  </si>
-  <si>
-    <t>louise_johansson</t>
-  </si>
-  <si>
-    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
-  </si>
-  <si>
-    <t>dongxiao_sun</t>
-  </si>
-  <si>
-    <t>chengguo_shi</t>
-  </si>
-  <si>
-    <t>ranee_miao</t>
-  </si>
-  <si>
-    <t>christian_sieling</t>
-  </si>
-  <si>
-    <t>chen_gong</t>
+    <t>bob_valk</t>
+  </si>
+  <si>
+    <t>hongyi_ji</t>
+  </si>
+  <si>
+    <t>philip_aschendorf</t>
   </si>
   <si>
     <t>scott_baines</t>
   </si>
   <si>
-    <t>johan_emanuelsson</t>
-  </si>
-  <si>
-    <t>luis_portas</t>
-  </si>
-  <si>
-    <t>bob_valk</t>
-  </si>
-  <si>
-    <t>wenlu_ma</t>
-  </si>
-  <si>
-    <t>philip_aschendorf</t>
-  </si>
-  <si>
-    <t>hongyi_ji</t>
-  </si>
-  <si>
-    <t>chenqi_peng</t>
-  </si>
-  <si>
-    <t>paolo_cova</t>
-  </si>
-  <si>
-    <t>chan_jun</t>
-  </si>
-  <si>
-    <t>daniel_gao</t>
-  </si>
-  <si>
-    <t>laura_peschke</t>
-  </si>
-  <si>
-    <t>shaohua_guo</t>
-  </si>
-  <si>
-    <t>rasmus_huus</t>
-  </si>
-  <si>
-    <t>anja_bruun</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic</t>
-  </si>
-  <si>
-    <t>andreas_roehl</t>
-  </si>
-  <si>
-    <t>elise_chen</t>
-  </si>
-  <si>
-    <t>christian_wiegand</t>
-  </si>
-  <si>
-    <t>tristan_hamelink</t>
-  </si>
-  <si>
-    <t>silvia_leeuw</t>
-  </si>
-  <si>
-    <t>onno_duimel</t>
-  </si>
-  <si>
-    <t>sadia_Aden_Mohamed</t>
-  </si>
-  <si>
-    <t>an_ho</t>
-  </si>
-  <si>
-    <t>erica_blomberg</t>
-  </si>
-  <si>
-    <t>niklas_gustafson</t>
-  </si>
-  <si>
-    <t>andreas_loeoev</t>
-  </si>
-  <si>
     <t>COE</t>
   </si>
   <si>
@@ -601,24 +601,18 @@
     <t>Market_Entry_and_Operation</t>
   </si>
   <si>
-    <t>Training_Operation</t>
-  </si>
-  <si>
     <t>Network_Infrastructure</t>
   </si>
   <si>
     <t>Service_Operation</t>
   </si>
   <si>
+    <t>User_Development</t>
+  </si>
+  <si>
     <t>User Relation + SCR</t>
   </si>
   <si>
-    <t>User_Development</t>
-  </si>
-  <si>
-    <t>System_Development</t>
-  </si>
-  <si>
     <t>COE-Digital-Digital_Product_Launch,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_System_Operation</t>
   </si>
   <si>
@@ -655,9 +649,6 @@
     <t>EB-Enabling-Project_Management</t>
   </si>
   <si>
-    <t>EB-Enabling-Training</t>
-  </si>
-  <si>
     <t>EB-ND-Construction_Management</t>
   </si>
   <si>
@@ -667,9 +658,6 @@
     <t>EB-ND-NIO_House_Operation</t>
   </si>
   <si>
-    <t>EB-ND-Network_Development</t>
-  </si>
-  <si>
     <t>EB-SO-Service_Operation</t>
   </si>
   <si>
@@ -679,12 +667,6 @@
     <t>EB-SO-Service_Planning</t>
   </si>
   <si>
-    <t>EB-Satisfaction-SCR</t>
-  </si>
-  <si>
-    <t>EB-Satisfaction-Satisfaction_Operation,EB-Community-NIO_Point_&amp;_Value,EB-Community-Community_Events,EB-Community-Community_Development,EB-Community-Referral_Development,EB-Community-IP_Management</t>
-  </si>
-  <si>
     <t>EB-UD-Communication,EB-UD-PR</t>
   </si>
   <si>
@@ -697,9 +679,6 @@
     <t>EB-UO-Business_Intelligence</t>
   </si>
   <si>
-    <t>EB-UO-LOTD_Operation</t>
-  </si>
-  <si>
     <t>EB-UO-Partner_Strategy</t>
   </si>
   <si>
@@ -742,21 +721,12 @@
     <t>Chen GONG</t>
   </si>
   <si>
-    <t>Scott Baines</t>
-  </si>
-  <si>
     <t>Brian ZHANG</t>
   </si>
   <si>
     <t>Jessica FU,Effy SONG</t>
   </si>
   <si>
-    <t>Philip Aschendorf</t>
-  </si>
-  <si>
-    <t>Hongyi JI</t>
-  </si>
-  <si>
     <t>Chris CHEN</t>
   </si>
   <si>
@@ -766,36 +736,27 @@
     <t>Derk Timmer</t>
   </si>
   <si>
-    <t>Chenqi PENG</t>
+    <t>Helen Baerbock</t>
   </si>
   <si>
     <t>Paolo Cova</t>
   </si>
   <si>
-    <t>Ralph Kranz</t>
-  </si>
-  <si>
-    <t>Sebastian Hillenbach</t>
-  </si>
-  <si>
-    <t>Andreas Roehl</t>
-  </si>
-  <si>
-    <t>Florian Weinzierl</t>
-  </si>
-  <si>
-    <t>Christian Wiegand</t>
-  </si>
-  <si>
-    <t>Elise Chen</t>
+    <t>Marius Hayler,Mattias Lundgren,Ruben Keuter,Ralph Kranz</t>
+  </si>
+  <si>
+    <t>Andreas Roehl,Sadia Aden Mohamed,Andreas Lööv,Dejvid Noinovic,Onno Duimel</t>
+  </si>
+  <si>
+    <t>Christian Wiegand,Vijay Sharma,Erica Blomberg,Anja Bruun,Silvia de Leeuw</t>
+  </si>
+  <si>
+    <t>An Ho,Niklas Gustafson,Rasmus Huus,Elise Chen,Tristan Hamelink</t>
   </si>
   <si>
     <t>Marius Hayler</t>
   </si>
   <si>
-    <t>Andreas Nyman</t>
-  </si>
-  <si>
     <t>Sadia Aden Mohamed</t>
   </si>
   <si>
@@ -829,19 +790,55 @@
     <t>Ruben Keuter</t>
   </si>
   <si>
-    <t>Vas Morrien</t>
-  </si>
-  <si>
     <t>Onno Duimel</t>
   </si>
   <si>
-    <t>Robin Roosenstein</t>
-  </si>
-  <si>
     <t>Silvia de Leeuw</t>
   </si>
   <si>
     <t>Tristan Hamelink</t>
+  </si>
+  <si>
+    <t>COE_Digital_</t>
+  </si>
+  <si>
+    <t>COE_Finance</t>
+  </si>
+  <si>
+    <t>COE_HR</t>
+  </si>
+  <si>
+    <t>COE_Legal</t>
+  </si>
+  <si>
+    <t>COE_NIO_Life</t>
+  </si>
+  <si>
+    <t>COE_Product_Design</t>
+  </si>
+  <si>
+    <t>COE Power_Operation</t>
+  </si>
+  <si>
+    <t>COE_Purchase</t>
+  </si>
+  <si>
+    <t>EB Business_Development</t>
+  </si>
+  <si>
+    <t>EB_Enabling</t>
+  </si>
+  <si>
+    <t>EB Network_Development</t>
+  </si>
+  <si>
+    <t>EB Service_Operation</t>
+  </si>
+  <si>
+    <t>EB User_Development</t>
+  </si>
+  <si>
+    <t>EB_User_Operation</t>
   </si>
 </sst>
 </file>
@@ -1199,13 +1196,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,1842 +1245,1764 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
         <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
         <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
         <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" t="s">
         <v>263</v>
       </c>
-      <c r="N4" t="s">
-        <v>258</v>
-      </c>
-      <c r="O4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
         <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L9" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M9" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
         <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M10" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M11" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
         <v>102</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>194</v>
       </c>
       <c r="I12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O12" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
         <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M13" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O13" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
         <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" t="s">
         <v>242</v>
       </c>
-      <c r="K14" t="s">
-        <v>253</v>
-      </c>
       <c r="L14" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O14" t="s">
+        <v>257</v>
+      </c>
+      <c r="P14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M15" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J16" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M16" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
         <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" t="s">
         <v>243</v>
       </c>
-      <c r="K17" t="s">
-        <v>252</v>
-      </c>
       <c r="L17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N17" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" t="s">
         <v>258</v>
       </c>
-      <c r="M17" t="s">
-        <v>263</v>
-      </c>
-      <c r="N17" t="s">
-        <v>258</v>
-      </c>
-      <c r="O17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
         <v>196</v>
       </c>
       <c r="I18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" t="s">
         <v>243</v>
       </c>
-      <c r="K18" t="s">
-        <v>252</v>
-      </c>
       <c r="L18" t="s">
+        <v>247</v>
+      </c>
+      <c r="M18" t="s">
+        <v>251</v>
+      </c>
+      <c r="N18" t="s">
+        <v>254</v>
+      </c>
+      <c r="O18" t="s">
         <v>258</v>
       </c>
-      <c r="M18" t="s">
-        <v>263</v>
-      </c>
-      <c r="N18" t="s">
-        <v>258</v>
-      </c>
-      <c r="O18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" t="s">
+        <v>251</v>
+      </c>
+      <c r="N19" t="s">
         <v>254</v>
       </c>
-      <c r="L19" t="s">
-        <v>260</v>
-      </c>
-      <c r="M19" t="s">
-        <v>264</v>
-      </c>
-      <c r="N19" t="s">
-        <v>267</v>
-      </c>
       <c r="O19" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" t="s">
+        <v>251</v>
+      </c>
+      <c r="N20" t="s">
         <v>254</v>
       </c>
-      <c r="L20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M20" t="s">
-        <v>264</v>
-      </c>
-      <c r="N20" t="s">
-        <v>267</v>
-      </c>
       <c r="O20" t="s">
+        <v>258</v>
+      </c>
+      <c r="P20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
         <v>197</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" t="s">
         <v>244</v>
       </c>
-      <c r="K21" t="s">
-        <v>254</v>
-      </c>
       <c r="L21" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="O21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>259</v>
+      </c>
+      <c r="P21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
         <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" t="s">
         <v>244</v>
       </c>
-      <c r="K22" t="s">
-        <v>254</v>
-      </c>
       <c r="L22" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="O22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>259</v>
+      </c>
+      <c r="P22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s">
         <v>245</v>
       </c>
-      <c r="K23" t="s">
-        <v>252</v>
-      </c>
       <c r="L23" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>260</v>
+      </c>
+      <c r="P23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
         <v>246</v>
       </c>
-      <c r="K24" t="s">
-        <v>255</v>
-      </c>
-      <c r="L24" t="s">
-        <v>258</v>
-      </c>
       <c r="M24" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="P24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" t="s">
         <v>256</v>
       </c>
-      <c r="L25" t="s">
-        <v>261</v>
-      </c>
-      <c r="M25" t="s">
-        <v>265</v>
-      </c>
-      <c r="N25" t="s">
-        <v>268</v>
-      </c>
       <c r="O25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="s">
+        <v>253</v>
+      </c>
+      <c r="N26" t="s">
         <v>256</v>
       </c>
-      <c r="L26" t="s">
-        <v>261</v>
-      </c>
-      <c r="M26" t="s">
-        <v>265</v>
-      </c>
-      <c r="N26" t="s">
-        <v>268</v>
-      </c>
       <c r="O26" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
         <v>193</v>
       </c>
-      <c r="I27" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" t="s">
-        <v>257</v>
-      </c>
-      <c r="L27" t="s">
-        <v>262</v>
-      </c>
-      <c r="M27" t="s">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s">
-        <v>269</v>
-      </c>
-      <c r="O27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" t="s">
-        <v>252</v>
-      </c>
-      <c r="L28" t="s">
-        <v>258</v>
-      </c>
-      <c r="M28" t="s">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s">
-        <v>258</v>
-      </c>
-      <c r="O28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" t="s">
-        <v>257</v>
-      </c>
-      <c r="L29" t="s">
-        <v>262</v>
-      </c>
-      <c r="M29" t="s">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s">
-        <v>269</v>
-      </c>
-      <c r="O29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
-      </c>
-      <c r="I30" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" t="s">
-        <v>257</v>
-      </c>
-      <c r="L30" t="s">
-        <v>262</v>
-      </c>
-      <c r="M30" t="s">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s">
-        <v>269</v>
-      </c>
-      <c r="O30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" t="s">
-        <v>251</v>
-      </c>
-      <c r="K31" t="s">
-        <v>257</v>
-      </c>
-      <c r="L31" t="s">
-        <v>262</v>
-      </c>
-      <c r="M31" t="s">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s">
-        <v>269</v>
-      </c>
-      <c r="O31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>195</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
       </c>
       <c r="H33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="J36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J38" t="s">
-        <v>230</v>
-      </c>
-      <c r="K38" t="s">
-        <v>252</v>
-      </c>
-      <c r="L38" t="s">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s">
-        <v>263</v>
-      </c>
-      <c r="N38" t="s">
-        <v>258</v>
-      </c>
-      <c r="O38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" t="s">
-        <v>197</v>
-      </c>
-      <c r="J41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
-      </c>
-      <c r="J45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" t="s">
-        <v>256</v>
-      </c>
-      <c r="L46" t="s">
-        <v>261</v>
-      </c>
-      <c r="M46" t="s">
-        <v>265</v>
-      </c>
-      <c r="N46" t="s">
-        <v>268</v>
-      </c>
-      <c r="O46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" t="s">
-        <v>256</v>
-      </c>
-      <c r="L47" t="s">
-        <v>261</v>
-      </c>
-      <c r="M47" t="s">
-        <v>265</v>
-      </c>
-      <c r="N47" t="s">
-        <v>268</v>
-      </c>
-      <c r="O47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>199</v>
-      </c>
-      <c r="K48" t="s">
-        <v>256</v>
-      </c>
-      <c r="L48" t="s">
-        <v>261</v>
-      </c>
-      <c r="M48" t="s">
-        <v>265</v>
-      </c>
-      <c r="N48" t="s">
-        <v>268</v>
-      </c>
-      <c r="O48" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3091,25 +3010,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="J49" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3117,25 +3039,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3143,22 +3062,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>175</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="J51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3166,22 +3091,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
-      </c>
-      <c r="J52" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3189,22 +3117,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" t="s">
+        <v>177</v>
       </c>
       <c r="H53" t="s">
         <v>197</v>
-      </c>
-      <c r="J53" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3212,19 +3143,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3232,25 +3166,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3258,22 +3189,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" t="s">
-        <v>138</v>
+        <v>53</v>
+      </c>
+      <c r="H56" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3281,22 +3209,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" t="s">
-        <v>139</v>
-      </c>
-      <c r="G57" t="s">
-        <v>139</v>
+        <v>53</v>
+      </c>
+      <c r="H57" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3304,22 +3229,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3327,22 +3255,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3350,16 +3281,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3367,25 +3310,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="J61" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3393,22 +3339,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" t="s">
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3416,19 +3365,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>198</v>
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3436,25 +3388,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G64" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3462,25 +3414,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3488,19 +3440,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
         <v>193</v>
@@ -3511,28 +3463,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J67" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3540,22 +3492,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" t="s">
-        <v>101</v>
-      </c>
-      <c r="J68" t="s">
-        <v>237</v>
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3563,28 +3512,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3592,25 +3538,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3618,25 +3561,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H71" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3644,22 +3584,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" t="s">
-        <v>198</v>
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3667,22 +3607,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J73" t="s">
-        <v>237</v>
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3690,19 +3630,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s">
-        <v>198</v>
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3710,19 +3653,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" t="s">
-        <v>193</v>
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3730,25 +3676,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>184</v>
-      </c>
-      <c r="H76" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3756,310 +3699,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
-      </c>
-      <c r="H77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" t="s">
-        <v>197</v>
-      </c>
-      <c r="J78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
-        <v>68</v>
-      </c>
-      <c r="F79" t="s">
         <v>154</v>
-      </c>
-      <c r="G79" t="s">
-        <v>187</v>
-      </c>
-      <c r="H79" t="s">
-        <v>197</v>
-      </c>
-      <c r="J79" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>68</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
-      </c>
-      <c r="G80" t="s">
-        <v>188</v>
-      </c>
-      <c r="H80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" t="s">
-        <v>101</v>
-      </c>
-      <c r="J81" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" t="s">
-        <v>69</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
-      </c>
-      <c r="G82" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>69</v>
-      </c>
-      <c r="F83" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" t="s">
-        <v>190</v>
-      </c>
-      <c r="H83" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
-      </c>
-      <c r="H84" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" t="s">
-        <v>159</v>
-      </c>
-      <c r="G85" t="s">
-        <v>191</v>
-      </c>
-      <c r="H85" t="s">
-        <v>197</v>
-      </c>
-      <c r="J85" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="H88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" t="s">
-        <v>160</v>
-      </c>
-      <c r="G89" t="s">
-        <v>160</v>
-      </c>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-      <c r="J89" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -94,7 +94,7 @@
     <t>Europe_Market_Planning</t>
   </si>
   <si>
-    <t>_Europe_Business_Enabling</t>
+    <t>Europe_Business_Enabling</t>
   </si>
   <si>
     <t>Construction_Management</t>
@@ -295,7 +295,7 @@
     <t>henry_shen</t>
   </si>
   <si>
-    <t>arnaud_rongy,chris_di,emil_andersson,_fatima_galean,_katalin_konye</t>
+    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye</t>
   </si>
   <si>
     <t>yu_huang6</t>
@@ -463,7 +463,7 @@
     <t>tom_wharfe,matt_galvin,jon_higgins</t>
   </si>
   <si>
-    <t>bob_valk,simon_mueller,koen_peters,_jianwei_yin</t>
+    <t>bob_valk,simon_mueller,koen_peters, jianwei_yin</t>
   </si>
   <si>
     <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
@@ -661,7 +661,7 @@
     <t>EB-SO-Service_Operation</t>
   </si>
   <si>
-    <t>EB-SO-Service_Parts_&amp;_Logistics_</t>
+    <t>EB-SO-Service_Parts_&amp;_Logistics</t>
   </si>
   <si>
     <t>EB-SO-Service_Planning</t>
@@ -799,7 +799,7 @@
     <t>Tristan Hamelink</t>
   </si>
   <si>
-    <t>COE_Digital_</t>
+    <t>COE_Digital</t>
   </si>
   <si>
     <t>COE_Finance</t>
@@ -817,25 +817,25 @@
     <t>COE_Product_Design</t>
   </si>
   <si>
-    <t>COE Power_Operation</t>
+    <t>COE_Power_Operation</t>
   </si>
   <si>
     <t>COE_Purchase</t>
   </si>
   <si>
-    <t>EB Business_Development</t>
+    <t>EB_Business_Development</t>
   </si>
   <si>
     <t>EB_Enabling</t>
   </si>
   <si>
-    <t>EB Network_Development</t>
-  </si>
-  <si>
-    <t>EB Service_Operation</t>
-  </si>
-  <si>
-    <t>EB User_Development</t>
+    <t>EB_Network_Development</t>
+  </si>
+  <si>
+    <t>EB_Service_Operation</t>
+  </si>
+  <si>
+    <t>EB_User_Development</t>
   </si>
   <si>
     <t>EB_User_Operation</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="241">
   <si>
     <t>Department</t>
   </si>
@@ -40,27 +40,12 @@
     <t>Capability</t>
   </si>
   <si>
-    <t>Real SOP Writer</t>
+    <t>Belongs to Topic</t>
   </si>
   <si>
     <t>Approver</t>
   </si>
   <si>
-    <t>NO Counterpart</t>
-  </si>
-  <si>
-    <t>SE Counterpart</t>
-  </si>
-  <si>
-    <t>DK Counterpart</t>
-  </si>
-  <si>
-    <t>NL Counterpart</t>
-  </si>
-  <si>
-    <t>Belongs to Topic</t>
-  </si>
-  <si>
     <t>Digital_Development_PMO_Team</t>
   </si>
   <si>
@@ -289,201 +274,216 @@
     <t>NIO_Switzerland</t>
   </si>
   <si>
+    <t>Logistics_Demand_Planning_Team</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
     <t>henry_shen</t>
   </si>
   <si>
-    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye</t>
+    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,chengguo_shi</t>
   </si>
   <si>
     <t>yu_huang6</t>
   </si>
   <si>
+    <t>moritz_wefelscheid,lukas_storch</t>
+  </si>
+  <si>
+    <t>finn_xue</t>
+  </si>
+  <si>
+    <t>benjamin_steinmetz,pep_pujolmur,marius_keil,sebastian_salera,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
+  </si>
+  <si>
+    <t>niklas_andersson,stephen_liu, haiyun_zhou, junye_shao,francis_ji,jackson_xu1,robert_huang</t>
+  </si>
+  <si>
+    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
+  </si>
+  <si>
+    <t>christian_rebo</t>
+  </si>
+  <si>
+    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
+  </si>
+  <si>
+    <t>bella_lin,yantao_zhou,daisy_xiao,tristan_vonballuseck,zoey_li1,christian_sieling,anastasia_kozachenko,caesar_qian</t>
+  </si>
+  <si>
+    <t>heming_li,shuang_wu3,di_hu1,wanli_ren,ziye_chen,winnie_wu1,wenchao_cui1,charlotte_liu1,sarah_opfer,chen_gong,helen_baerbock,hiroshi_watari,qianling_duan</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
+  </si>
+  <si>
+    <t>luis_portas,fernanda_mejia,gregory_anderson,tim_weener</t>
+  </si>
+  <si>
+    <t>joachim_pach</t>
+  </si>
+  <si>
+    <t>wenlu_ma,jerry_liu3,echo_zeng,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu,zitong_pan</t>
+  </si>
+  <si>
+    <t>jasper_deman</t>
+  </si>
+  <si>
+    <t>johnny_cheung,yang_huang,wenwen_jiang</t>
+  </si>
+  <si>
+    <t>lisong_meng</t>
+  </si>
+  <si>
+    <t>chris_chen1,alissia_lehle,anastasia_kozachenko,anja_plank1,veronica_akerblad,charilaos_kantas,marina_paradiso,julia_bock,julia_lichtmannecker</t>
+  </si>
+  <si>
+    <t>chris_chen1</t>
+  </si>
+  <si>
+    <t>derk_timmer,arun_paragh,boris_mihailovic,catherine_zhu</t>
+  </si>
+  <si>
+    <t>helen_baerbock</t>
+  </si>
+  <si>
+    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
+  </si>
+  <si>
+    <t>yujie_jia,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>chenqi_peng,timo_herrmann,julie_jiang,alexandre_gallo,sven_conrad,manuel_endres,jiabao_xu</t>
+  </si>
+  <si>
+    <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
+  </si>
+  <si>
+    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden</t>
+  </si>
+  <si>
+    <t>alexander_kunith,wouter_hollander,Tina_FAN,tobias_schrempf,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin, nicky_heidrich, hao_yang1,richard_zhang1, xilian_yu,matrai_peter,depraute_rene, jianwei_yin</t>
+  </si>
+  <si>
+    <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
+  </si>
+  <si>
+    <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
+  </si>
+  <si>
+    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,vlad_tarverdov,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,karam_alnafous,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
+  </si>
+  <si>
+    <t>marius_hayler</t>
+  </si>
+  <si>
+    <t>mattias_lundgren</t>
+  </si>
+  <si>
+    <t>robin_roosenstein,ruben_keuter</t>
+  </si>
+  <si>
+    <t>ralph_kranz</t>
+  </si>
+  <si>
+    <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
+  </si>
+  <si>
+    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
+  </si>
+  <si>
+    <t>christian_neergaard</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
+  </si>
+  <si>
+    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
+  </si>
+  <si>
+    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
+  </si>
+  <si>
+    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
+  </si>
+  <si>
+    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous,vlad_tarverdov</t>
+  </si>
+  <si>
+    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
+  </si>
+  <si>
+    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
+  </si>
+  <si>
+    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
+  </si>
+  <si>
+    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
+  </si>
+  <si>
+    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
+  </si>
+  <si>
+    <t>gustaf_sjoeholm,erica_blomberg</t>
+  </si>
+  <si>
+    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
+  </si>
+  <si>
+    <t>louise_johansson</t>
+  </si>
+  <si>
+    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
+  </si>
+  <si>
+    <t>dongxiao_sun</t>
+  </si>
+  <si>
+    <t>akos_kiss,alice_bontridder,loic_helleputte</t>
+  </si>
+  <si>
+    <t>tom_wharfe,matt_galvin,jon_higgins</t>
+  </si>
+  <si>
+    <t>bob_valk,simon_mueller,koen_peters</t>
+  </si>
+  <si>
+    <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
+  </si>
+  <si>
+    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,richard_vermeulen,juliane_weinschenk,ana_bjelcic_o,andre_tollefsen,attila_hudetz,vassil_loukarsky_o,sheilla_campos_o,chi_lo_o,dennis_mujic,emilia_dera_o,fredrik_aslund1,gergo_almasi,martin_olsson,marc_bloch</t>
+  </si>
+  <si>
+    <t>scott_baines,joris_coolen</t>
+  </si>
+  <si>
+    <t>martin_rieder</t>
+  </si>
+  <si>
+    <t>gerald_krainer</t>
+  </si>
+  <si>
+    <t>zhongjie_fu,mingqiang_li,wei_li,matteo_mao</t>
+  </si>
+  <si>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
     <t>moritz_wefelscheid</t>
   </si>
   <si>
-    <t>finn_xue</t>
-  </si>
-  <si>
     <t>benjamin_steinmetz</t>
   </si>
   <si>
     <t>niklas_andersson</t>
   </si>
   <si>
-    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
-  </si>
-  <si>
-    <t>christian_rebo</t>
-  </si>
-  <si>
-    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
-  </si>
-  <si>
-    <t>bella_lin,yantao_zhou,daisy_xiao,tristan_vonballuseck,zoey_li1,christian_sieling,anastasia_kozachenko,caesar_qian</t>
-  </si>
-  <si>
-    <t>heming_li,shuang_wu3,di_hu1,wanli_ren,ziye_chen,winnie_wu1,wenchao_cui1,charlotte_liu1,sarah_opfer,chen_gong,helen_baerbock,hiroshi_watari,qianling_duan</t>
-  </si>
-  <si>
-    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
-  </si>
-  <si>
-    <t>luis_portas,fernanda_mejia,gregory_anderson,tim_weener</t>
-  </si>
-  <si>
-    <t>joachim_pach</t>
-  </si>
-  <si>
-    <t>wenlu_ma,jerry_liu3,echo_zeng,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu,zitong_pan</t>
-  </si>
-  <si>
-    <t>jasper_deman</t>
-  </si>
-  <si>
-    <t>johnny_cheung,yang_huang,wenwen_jiang</t>
-  </si>
-  <si>
-    <t>lisong_meng</t>
-  </si>
-  <si>
-    <t>chris_chen1,alissia_lehle,anastasia_kozachenko,anja_plank1,veronica_akerblad,charilaos_kantas,marina_paradiso,julia_bock,julia_lichtmannecker</t>
-  </si>
-  <si>
-    <t>chris_chen1</t>
-  </si>
-  <si>
-    <t>derk_timmer,arun_paragh,boris_mihailovic,catherine_zhu</t>
-  </si>
-  <si>
-    <t>helen_baerbock</t>
-  </si>
-  <si>
-    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
-  </si>
-  <si>
-    <t>yujie_jia,daniela_wimmer_nio_io</t>
-  </si>
-  <si>
-    <t>chenqi_peng,timo_herrmann,julie_jiang,alexandre_gallo,sven_conrad,manuel_endres,jiabao_xu</t>
-  </si>
-  <si>
-    <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
-  </si>
-  <si>
-    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden</t>
-  </si>
-  <si>
-    <t>alexander_kunith,wouter_hollander,Tina_FAN</t>
-  </si>
-  <si>
-    <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
-  </si>
-  <si>
-    <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
-  </si>
-  <si>
-    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,vlad_tarverdov,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,karam_alnafous,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
-  </si>
-  <si>
-    <t>marius_hayler</t>
-  </si>
-  <si>
-    <t>mattias_lundgren</t>
-  </si>
-  <si>
-    <t>robin_roosenstein,ruben_keuter</t>
-  </si>
-  <si>
-    <t>ralph_kranz</t>
-  </si>
-  <si>
-    <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io</t>
-  </si>
-  <si>
-    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
-  </si>
-  <si>
-    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
-  </si>
-  <si>
-    <t>christian_neergaard</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
-  </si>
-  <si>
-    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
-  </si>
-  <si>
-    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
-  </si>
-  <si>
-    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
-  </si>
-  <si>
-    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous,vlad_tarverdov</t>
-  </si>
-  <si>
-    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
-  </si>
-  <si>
-    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
-  </si>
-  <si>
-    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
-  </si>
-  <si>
-    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
-  </si>
-  <si>
-    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
-  </si>
-  <si>
-    <t>gustaf_sjoeholm,erica_blomberg</t>
-  </si>
-  <si>
-    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
-  </si>
-  <si>
-    <t>louise_johansson</t>
-  </si>
-  <si>
-    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
-  </si>
-  <si>
-    <t>dongxiao_sun</t>
-  </si>
-  <si>
-    <t>akos_kiss,alice_bontridder,loic_helleputte</t>
-  </si>
-  <si>
-    <t>tom_wharfe,matt_galvin,jon_higgins</t>
-  </si>
-  <si>
-    <t>bob_valk,simon_mueller,koen_peters, jianwei_yin</t>
-  </si>
-  <si>
-    <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
-  </si>
-  <si>
-    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,richard_vermeulen,juliane_weinschenk,ana_bjelcic_o,andre_tollefsen,attila_hudetz,vassil_loukarsky_o,sheilla_campos_o,chi_lo_o,dennis_mujic,emilia_dera_o,fredrik_aslund1,gergo_almasi,martin_olsson,marc_bloch</t>
-  </si>
-  <si>
-    <t>scott_baines,joris_coolen</t>
-  </si>
-  <si>
-    <t>martin_rieder</t>
-  </si>
-  <si>
-    <t>gerald_krainer</t>
-  </si>
-  <si>
-    <t>chengguo_shi</t>
-  </si>
-  <si>
     <t>sarah_ding</t>
   </si>
   <si>
@@ -685,61 +685,46 @@
     <t>EB-UO-Subscription_Product_&amp;_management,EB-UO-Commercial_Product</t>
   </si>
   <si>
-    <t>Henry SHEN</t>
-  </si>
-  <si>
-    <t>Pierre SHI</t>
-  </si>
-  <si>
-    <t>Sunny Wang</t>
-  </si>
-  <si>
-    <t>Tino Tezel</t>
-  </si>
-  <si>
-    <t>Finn XUE</t>
-  </si>
-  <si>
-    <t>Benjamin Steinmetz</t>
-  </si>
-  <si>
-    <t>Niklas Andersson</t>
-  </si>
-  <si>
-    <t>Sarah DING</t>
-  </si>
-  <si>
-    <t>Christian Rebo</t>
-  </si>
-  <si>
-    <t>Ranee MIAO</t>
-  </si>
-  <si>
-    <t>Christian Sieling</t>
-  </si>
-  <si>
-    <t>Chen GONG</t>
-  </si>
-  <si>
-    <t>Brian ZHANG</t>
-  </si>
-  <si>
-    <t>Jessica FU,Effy SONG</t>
-  </si>
-  <si>
-    <t>Chris CHEN</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Derk Timmer</t>
-  </si>
-  <si>
-    <t>Helen Baerbock</t>
-  </si>
-  <si>
-    <t>Paolo Cova</t>
+    <t>COE_Digital</t>
+  </si>
+  <si>
+    <t>COE_Finance</t>
+  </si>
+  <si>
+    <t>COE_HR</t>
+  </si>
+  <si>
+    <t>COE_Legal</t>
+  </si>
+  <si>
+    <t>COE_NIO_Life</t>
+  </si>
+  <si>
+    <t>COE_Product_Design</t>
+  </si>
+  <si>
+    <t>COE_Power_Operation</t>
+  </si>
+  <si>
+    <t>COE_Purchase</t>
+  </si>
+  <si>
+    <t>EB_Business_Development</t>
+  </si>
+  <si>
+    <t>EB_Enabling</t>
+  </si>
+  <si>
+    <t>EB_Network_Development</t>
+  </si>
+  <si>
+    <t>EB_Service_Operation</t>
+  </si>
+  <si>
+    <t>EB_User_Development</t>
+  </si>
+  <si>
+    <t>EB_User_Operation</t>
   </si>
   <si>
     <t>Marius Hayler,Mattias Lundgren,Ruben Keuter,Ralph Kranz</t>
@@ -752,93 +737,6 @@
   </si>
   <si>
     <t>An Ho,Niklas Gustafson,Rasmus Huus,Elise Chen,Tristan Hamelink</t>
-  </si>
-  <si>
-    <t>Marius Hayler</t>
-  </si>
-  <si>
-    <t>Sadia Aden Mohamed</t>
-  </si>
-  <si>
-    <t>Vijay Sharma</t>
-  </si>
-  <si>
-    <t>An Ho</t>
-  </si>
-  <si>
-    <t>Mattias Lundgren</t>
-  </si>
-  <si>
-    <t>Andreas Lööv</t>
-  </si>
-  <si>
-    <t>Erica Blomberg</t>
-  </si>
-  <si>
-    <t>Niklas Gustafson</t>
-  </si>
-  <si>
-    <t>Dejvid Noinovic</t>
-  </si>
-  <si>
-    <t>Anja Bruun</t>
-  </si>
-  <si>
-    <t>Rasmus Huus</t>
-  </si>
-  <si>
-    <t>Ruben Keuter</t>
-  </si>
-  <si>
-    <t>Onno Duimel</t>
-  </si>
-  <si>
-    <t>Silvia de Leeuw</t>
-  </si>
-  <si>
-    <t>Tristan Hamelink</t>
-  </si>
-  <si>
-    <t>COE_Digital</t>
-  </si>
-  <si>
-    <t>COE_Finance</t>
-  </si>
-  <si>
-    <t>COE_HR</t>
-  </si>
-  <si>
-    <t>COE_Legal</t>
-  </si>
-  <si>
-    <t>COE_NIO_Life</t>
-  </si>
-  <si>
-    <t>COE_Product_Design</t>
-  </si>
-  <si>
-    <t>COE_Power_Operation</t>
-  </si>
-  <si>
-    <t>COE_Purchase</t>
-  </si>
-  <si>
-    <t>EB_Business_Development</t>
-  </si>
-  <si>
-    <t>EB_Enabling</t>
-  </si>
-  <si>
-    <t>EB_Network_Development</t>
-  </si>
-  <si>
-    <t>EB_Service_Operation</t>
-  </si>
-  <si>
-    <t>EB_User_Development</t>
-  </si>
-  <si>
-    <t>EB_User_Operation</t>
   </si>
 </sst>
 </file>
@@ -1196,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,40 +1131,25 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>192</v>
@@ -1278,42 +1161,27 @@
         <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>192</v>
@@ -1325,42 +1193,27 @@
         <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N3" t="s">
-        <v>246</v>
-      </c>
-      <c r="O3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>192</v>
@@ -1372,42 +1225,27 @@
         <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N4" t="s">
-        <v>246</v>
-      </c>
-      <c r="O4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
         <v>192</v>
@@ -1419,42 +1257,27 @@
         <v>226</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M5" t="s">
-        <v>250</v>
-      </c>
-      <c r="N5" t="s">
-        <v>246</v>
-      </c>
-      <c r="O5" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>192</v>
@@ -1466,42 +1289,27 @@
         <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>242</v>
-      </c>
-      <c r="L6" t="s">
-        <v>246</v>
-      </c>
-      <c r="M6" t="s">
-        <v>250</v>
-      </c>
-      <c r="N6" t="s">
-        <v>246</v>
-      </c>
-      <c r="O6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H7" t="s">
         <v>192</v>
@@ -1513,42 +1321,27 @@
         <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M7" t="s">
-        <v>250</v>
-      </c>
-      <c r="N7" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
         <v>192</v>
@@ -1557,92 +1350,62 @@
         <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" t="s">
-        <v>246</v>
-      </c>
-      <c r="M8" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
         <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
-      </c>
-      <c r="L9" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" t="s">
-        <v>250</v>
-      </c>
-      <c r="N9" t="s">
-        <v>246</v>
-      </c>
-      <c r="O9" t="s">
-        <v>257</v>
-      </c>
-      <c r="P9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>192</v>
@@ -1651,45 +1414,30 @@
         <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" t="s">
-        <v>246</v>
-      </c>
-      <c r="O10" t="s">
-        <v>257</v>
-      </c>
-      <c r="P10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>157</v>
@@ -1701,45 +1449,30 @@
         <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" t="s">
-        <v>250</v>
-      </c>
-      <c r="N11" t="s">
-        <v>246</v>
-      </c>
-      <c r="O11" t="s">
-        <v>257</v>
-      </c>
-      <c r="P11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>158</v>
@@ -1751,45 +1484,30 @@
         <v>209</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K12" t="s">
-        <v>242</v>
-      </c>
-      <c r="L12" t="s">
-        <v>246</v>
-      </c>
-      <c r="M12" t="s">
-        <v>250</v>
-      </c>
-      <c r="N12" t="s">
-        <v>246</v>
-      </c>
-      <c r="O12" t="s">
-        <v>257</v>
-      </c>
-      <c r="P12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>159</v>
@@ -1801,45 +1519,30 @@
         <v>210</v>
       </c>
       <c r="J13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K13" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" t="s">
-        <v>246</v>
-      </c>
-      <c r="M13" t="s">
-        <v>250</v>
-      </c>
-      <c r="N13" t="s">
-        <v>246</v>
-      </c>
-      <c r="O13" t="s">
-        <v>257</v>
-      </c>
-      <c r="P13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>160</v>
@@ -1851,45 +1554,30 @@
         <v>211</v>
       </c>
       <c r="J14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" t="s">
-        <v>250</v>
-      </c>
-      <c r="N14" t="s">
-        <v>246</v>
-      </c>
-      <c r="O14" t="s">
-        <v>257</v>
-      </c>
-      <c r="P14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>161</v>
@@ -1901,48 +1589,33 @@
         <v>212</v>
       </c>
       <c r="J15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" t="s">
-        <v>246</v>
-      </c>
-      <c r="M15" t="s">
-        <v>250</v>
-      </c>
-      <c r="N15" t="s">
-        <v>246</v>
-      </c>
-      <c r="O15" t="s">
-        <v>257</v>
-      </c>
-      <c r="P15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>195</v>
@@ -1951,45 +1624,30 @@
         <v>213</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
-        <v>242</v>
-      </c>
-      <c r="L16" t="s">
-        <v>246</v>
-      </c>
-      <c r="M16" t="s">
-        <v>250</v>
-      </c>
-      <c r="N16" t="s">
-        <v>246</v>
-      </c>
-      <c r="O16" t="s">
-        <v>257</v>
-      </c>
-      <c r="P16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
         <v>162</v>
@@ -2001,48 +1659,33 @@
         <v>214</v>
       </c>
       <c r="J17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>243</v>
-      </c>
-      <c r="L17" t="s">
-        <v>247</v>
-      </c>
-      <c r="M17" t="s">
-        <v>251</v>
-      </c>
-      <c r="N17" t="s">
-        <v>254</v>
-      </c>
-      <c r="O17" t="s">
-        <v>258</v>
-      </c>
-      <c r="P17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
         <v>196</v>
@@ -2051,45 +1694,30 @@
         <v>214</v>
       </c>
       <c r="J18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
-      </c>
-      <c r="L18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M18" t="s">
-        <v>251</v>
-      </c>
-      <c r="N18" t="s">
-        <v>254</v>
-      </c>
-      <c r="O18" t="s">
-        <v>258</v>
-      </c>
-      <c r="P18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
         <v>163</v>
@@ -2101,48 +1729,33 @@
         <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" t="s">
-        <v>247</v>
-      </c>
-      <c r="M19" t="s">
-        <v>251</v>
-      </c>
-      <c r="N19" t="s">
-        <v>254</v>
-      </c>
-      <c r="O19" t="s">
-        <v>258</v>
-      </c>
-      <c r="P19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
         <v>196</v>
@@ -2151,48 +1764,33 @@
         <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" t="s">
-        <v>247</v>
-      </c>
-      <c r="M20" t="s">
-        <v>251</v>
-      </c>
-      <c r="N20" t="s">
-        <v>254</v>
-      </c>
-      <c r="O20" t="s">
-        <v>258</v>
-      </c>
-      <c r="P20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
         <v>197</v>
@@ -2201,48 +1799,33 @@
         <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" t="s">
-        <v>248</v>
-      </c>
-      <c r="M21" t="s">
-        <v>252</v>
-      </c>
-      <c r="N21" t="s">
-        <v>255</v>
-      </c>
-      <c r="O21" t="s">
-        <v>259</v>
-      </c>
-      <c r="P21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
         <v>197</v>
@@ -2251,42 +1834,27 @@
         <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" t="s">
-        <v>248</v>
-      </c>
-      <c r="M22" t="s">
-        <v>252</v>
-      </c>
-      <c r="N22" t="s">
-        <v>255</v>
-      </c>
-      <c r="O22" t="s">
-        <v>259</v>
-      </c>
-      <c r="P22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>164</v>
@@ -2298,45 +1866,30 @@
         <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" t="s">
-        <v>249</v>
-      </c>
-      <c r="M23" t="s">
-        <v>253</v>
-      </c>
-      <c r="N23" t="s">
-        <v>256</v>
-      </c>
-      <c r="O23" t="s">
-        <v>260</v>
-      </c>
-      <c r="P23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>165</v>
@@ -2348,48 +1901,33 @@
         <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
-      </c>
-      <c r="L24" t="s">
-        <v>246</v>
-      </c>
-      <c r="M24" t="s">
-        <v>250</v>
-      </c>
-      <c r="N24" t="s">
-        <v>246</v>
-      </c>
-      <c r="O24" t="s">
-        <v>257</v>
-      </c>
-      <c r="P24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
         <v>193</v>
@@ -2397,43 +1935,28 @@
       <c r="I25" t="s">
         <v>221</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>240</v>
       </c>
-      <c r="K25" t="s">
-        <v>245</v>
-      </c>
-      <c r="L25" t="s">
-        <v>249</v>
-      </c>
-      <c r="M25" t="s">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s">
-        <v>256</v>
-      </c>
-      <c r="O25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
         <v>166</v>
@@ -2445,45 +1968,30 @@
         <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
-      </c>
-      <c r="L26" t="s">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s">
-        <v>260</v>
-      </c>
-      <c r="P26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
         <v>158</v>
@@ -2492,93 +2000,84 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
       <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
         <v>167</v>
@@ -2587,24 +2086,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
         <v>168</v>
@@ -2612,28 +2111,25 @@
       <c r="H32" t="s">
         <v>195</v>
       </c>
-      <c r="J32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>169</v>
@@ -2642,50 +2138,47 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
         <v>170</v>
@@ -2693,261 +2186,252 @@
       <c r="H35" t="s">
         <v>195</v>
       </c>
-      <c r="J35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
         <v>196</v>
       </c>
-      <c r="J36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>172</v>
@@ -2956,24 +2440,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
         <v>173</v>
@@ -2982,47 +2466,47 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
         <v>174</v>
@@ -3030,51 +2514,45 @@
       <c r="H49" t="s">
         <v>196</v>
       </c>
-      <c r="J49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
         <v>175</v>
@@ -3082,28 +2560,25 @@
       <c r="H51" t="s">
         <v>196</v>
       </c>
-      <c r="J51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
         <v>176</v>
@@ -3112,24 +2587,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
         <v>177</v>
@@ -3138,110 +2613,107 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
         <v>178</v>
@@ -3250,24 +2722,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G59" t="s">
         <v>179</v>
@@ -3276,24 +2748,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
         <v>180</v>
@@ -3301,28 +2773,25 @@
       <c r="H60" t="s">
         <v>196</v>
       </c>
-      <c r="J60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
         <v>181</v>
@@ -3330,28 +2799,25 @@
       <c r="H61" t="s">
         <v>196</v>
       </c>
-      <c r="J61" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
         <v>182</v>
@@ -3360,47 +2826,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G64" t="s">
         <v>183</v>
@@ -3409,24 +2872,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G65" t="s">
         <v>184</v>
@@ -3435,47 +2898,47 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G67" t="s">
         <v>185</v>
@@ -3483,238 +2946,246 @@
       <c r="H67" t="s">
         <v>196</v>
       </c>
-      <c r="J67" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="J69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G72" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G74" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G77" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="297">
   <si>
     <t>Department</t>
   </si>
@@ -46,31 +46,34 @@
     <t>Approver</t>
   </si>
   <si>
-    <t>Digital_Development_PMO_Team</t>
-  </si>
-  <si>
-    <t>Controlling_and_Planning_Department</t>
-  </si>
-  <si>
-    <t>Europe_Business_HRBP_Department</t>
-  </si>
-  <si>
-    <t>Legal_EU_Department</t>
-  </si>
-  <si>
-    <t>NIO_Life_Supply_Chain_Department</t>
-  </si>
-  <si>
-    <t>Europe_Product_Experience_Department</t>
-  </si>
-  <si>
-    <t>Product_Marketing_Department</t>
-  </si>
-  <si>
-    <t>Power_market_launch_and_enabling_team</t>
-  </si>
-  <si>
-    <t>Purchasing_Governance_and_BP_Team</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Digital_Development_PMO</t>
+  </si>
+  <si>
+    <t>Controlling_and_Planning</t>
+  </si>
+  <si>
+    <t>Europe_Business_HRBP</t>
+  </si>
+  <si>
+    <t>Legal_EU</t>
+  </si>
+  <si>
+    <t>NIO_Life_Supply_Chain</t>
+  </si>
+  <si>
+    <t>Europe_Product_Experience</t>
+  </si>
+  <si>
+    <t>PMK_-_Product_Marketing</t>
+  </si>
+  <si>
+    <t>Power_market_launch_and_enabling</t>
+  </si>
+  <si>
+    <t>Purchasing_Governance_and_BP</t>
   </si>
   <si>
     <t>Business_Development</t>
@@ -124,34 +127,37 @@
     <t>Sales_Planning</t>
   </si>
   <si>
-    <t>Market_Launch_and_Enabling_Team</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team</t>
-  </si>
-  <si>
-    <t>Strategy_and_Business_Development_Team</t>
+    <t>Market_Launch_and_Enabling</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation</t>
+  </si>
+  <si>
+    <t>Strategy_and_Business_Development</t>
   </si>
   <si>
     <t>Retall_Sales</t>
   </si>
   <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Europe_Commercial_Operation</t>
-  </si>
-  <si>
-    <t>Europe_Power_Operation</t>
-  </si>
-  <si>
-    <t>Europe_Space_Experience</t>
-  </si>
-  <si>
-    <t>Europe_Service_Operation</t>
-  </si>
-  <si>
-    <t>Europe_User_Development</t>
+    <t>Network_Development_PMO</t>
+  </si>
+  <si>
+    <t>ECO_-_Europe_Commercial_Operation</t>
+  </si>
+  <si>
+    <t>EPO_-_Europe_Power_Operation</t>
+  </si>
+  <si>
+    <t>EPX_-_Europe_Space_Experience</t>
+  </si>
+  <si>
+    <t>ESO_-_Europe_Service_Operation</t>
+  </si>
+  <si>
+    <t>EUD_-_Europe_User_Development</t>
+  </si>
+  <si>
+    <t>EBO_-_Europe_Business_Operation</t>
   </si>
   <si>
     <t>NIO_Norway</t>
@@ -169,79 +175,76 @@
     <t>NIO_Denmark</t>
   </si>
   <si>
-    <t>Europe_Business_Operation</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserRelationship_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Denmark_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>UserRelations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserRelationship_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Netherlands_Company</t>
-  </si>
-  <si>
-    <t>Service_Team_Norway_Company</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company</t>
-  </si>
-  <si>
-    <t>Power_Management_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>UserOperations_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Fleet_Management_Team_Sweden_Company</t>
-  </si>
-  <si>
-    <t>Service_Operations_Team_Sweden_Company</t>
+    <t>Power_Management_Denmark</t>
+  </si>
+  <si>
+    <t>User_Relations_Denmark</t>
+  </si>
+  <si>
+    <t>User_Operations_Denmark</t>
+  </si>
+  <si>
+    <t>User_Development_Denmark</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Denmark</t>
+  </si>
+  <si>
+    <t>Service_Operations_Denmark</t>
+  </si>
+  <si>
+    <t>Power_Management_Germany</t>
+  </si>
+  <si>
+    <t>Service_Operations_Germany</t>
+  </si>
+  <si>
+    <t>User_Operations_Germany</t>
+  </si>
+  <si>
+    <t>User_Development_Germany</t>
+  </si>
+  <si>
+    <t>User_Relations_Germany</t>
+  </si>
+  <si>
+    <t>Power_Management_Netherlands</t>
+  </si>
+  <si>
+    <t>User_Relations_Netherlands</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Netherlands</t>
+  </si>
+  <si>
+    <t>User_Operations_Netherlands</t>
+  </si>
+  <si>
+    <t>User_Development_Netherlands</t>
+  </si>
+  <si>
+    <t>Service_Operations_Netherlands</t>
+  </si>
+  <si>
+    <t>Service_Team_Norway</t>
+  </si>
+  <si>
+    <t>User_Team_Norway</t>
+  </si>
+  <si>
+    <t>Power_Management_Sweden</t>
+  </si>
+  <si>
+    <t>User_Development_Sweden</t>
+  </si>
+  <si>
+    <t>User_Operations_Sweden</t>
+  </si>
+  <si>
+    <t>Fleet_Management_Sweden</t>
+  </si>
+  <si>
+    <t>Service_Operations_Sweden</t>
   </si>
   <si>
     <t>European_Business</t>
@@ -250,7 +253,7 @@
     <t>Power_Operation</t>
   </si>
   <si>
-    <t>NIO_Belgium_and_Luxembourg</t>
+    <t>NIO_Belgium_&amp;_Luxembourg</t>
   </si>
   <si>
     <t>NIO_UK</t>
@@ -274,106 +277,406 @@
     <t>NIO_Switzerland</t>
   </si>
   <si>
-    <t>Logistics_Demand_Planning_Team</t>
+    <t>Logistics_Demand_Planning</t>
+  </si>
+  <si>
+    <t>Commercial_Resource_Management</t>
+  </si>
+  <si>
+    <t>Business_Process_Management_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>FY_Planning_and_Enabling</t>
+  </si>
+  <si>
+    <t>Sales_Product_Group</t>
+  </si>
+  <si>
+    <t>Operational_Procurement</t>
+  </si>
+  <si>
+    <t>User_Experience_Business_Partner_and_Operation_Management</t>
+  </si>
+  <si>
+    <t>Power_Operations</t>
+  </si>
+  <si>
+    <t>NIO_Life_planning</t>
+  </si>
+  <si>
+    <t>Accounting_&amp;_Tax</t>
+  </si>
+  <si>
+    <t>Shopping_experience_product</t>
+  </si>
+  <si>
+    <t>Retail_Test</t>
+  </si>
+  <si>
+    <t>Community_Back-end_Development</t>
+  </si>
+  <si>
+    <t>Retail_Software_Development</t>
+  </si>
+  <si>
+    <t>SAP_Product</t>
+  </si>
+  <si>
+    <t>NIO_Life</t>
+  </si>
+  <si>
+    <t>CMQ_EU_Team</t>
+  </si>
+  <si>
+    <t>Swapping_&amp;_Charging_Planning_&amp;_Management</t>
+  </si>
+  <si>
+    <t>Power_Digital_Test_and_Technical_Support</t>
+  </si>
+  <si>
+    <t>EU_Power_Products</t>
+  </si>
+  <si>
+    <t>EU_Autonomous_Driving_Operations_Department</t>
+  </si>
+  <si>
+    <t>Technical_Support</t>
+  </si>
+  <si>
+    <t>EVM_&amp;_Technical_Agent_Sub-team</t>
+  </si>
+  <si>
+    <t>District_Technical_Support_Sub-team</t>
   </si>
   <si>
     <t>Click Me</t>
   </si>
   <si>
+    <t>henry_shen, chenfeng_zou</t>
+  </si>
+  <si>
+    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,chengguo_shi</t>
+  </si>
+  <si>
+    <t>yu_huang6</t>
+  </si>
+  <si>
+    <t>moritz_wefelscheid,lukas_storch, tino_tezel</t>
+  </si>
+  <si>
+    <t>finn_xue, syang_liu,robbie_maes, lovepreet_singh</t>
+  </si>
+  <si>
+    <t>benjamin_steinmetz,pep_pujolmur,marius_keil,sebastian_salera,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
+  </si>
+  <si>
+    <t>niklas_andersson,stephen_liu, haiyun_zhou, junye_shao,francis_ji,jackson_xu1,robert_huang</t>
+  </si>
+  <si>
+    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
+  </si>
+  <si>
+    <t>christian_rebo</t>
+  </si>
+  <si>
+    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
+  </si>
+  <si>
+    <t>bella_lin,yantao_zhou,daisy_xiao,tristan_vonballuseck,zoey_li1,christian_sieling,anastasia_kozachenko,caesar_qian</t>
+  </si>
+  <si>
+    <t>heming_li,shuang_wu3,di_hu1,wanli_ren,ziye_chen,winnie_wu1,wenchao_cui1,charlotte_liu1,sarah_opfer,chen_gong,helen_baerbock,hiroshi_watari,qianling_duan</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
+  </si>
+  <si>
+    <t>luis_portas,fernanda_mejia,gregory_anderson,tim_weener</t>
+  </si>
+  <si>
+    <t>joachim_pach</t>
+  </si>
+  <si>
+    <t>wenlu_ma,jerry_liu3,echo_zeng,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu,zitong_pan</t>
+  </si>
+  <si>
+    <t>jasper_deman</t>
+  </si>
+  <si>
+    <t>johnny_cheung,yang_huang,wenwen_jiang</t>
+  </si>
+  <si>
+    <t>lisong_meng</t>
+  </si>
+  <si>
+    <t>chris_chen1,alissia_lehle,anastasia_kozachenko,anja_plank1,veronica_akerblad,charilaos_kantas,marina_paradiso,julia_bock,julia_lichtmannecker</t>
+  </si>
+  <si>
+    <t>chris_chen1</t>
+  </si>
+  <si>
+    <t>derk_timmer,arun_paragh,boris_mihailovic,catherine_zhu</t>
+  </si>
+  <si>
+    <t>helen_baerbock,jing_hu</t>
+  </si>
+  <si>
+    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
+  </si>
+  <si>
+    <t>yujie_jia,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>quinten_robertz,rutger_berg</t>
+  </si>
+  <si>
+    <t>chenqi_peng,timo_herrmann,julie_jiang,alexandre_gallo,sven_conrad,manuel_endres,jiabao_xu</t>
+  </si>
+  <si>
+    <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
+  </si>
+  <si>
+    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden,chan_jun</t>
+  </si>
+  <si>
+    <t>alexander_kunith,wouter_hollander,tina_fan,tobias_schrempf,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin, nicky_heidrich, hao_yang1,richard_zhang1, xilian_yu,matrai_peter,depraute_rene, jianwei_yin</t>
+  </si>
+  <si>
+    <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
+  </si>
+  <si>
+    <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
+  </si>
+  <si>
+    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
+  </si>
+  <si>
+    <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io,bana_boubou</t>
+  </si>
+  <si>
+    <t>marius_hayler, usman_abbas1, magne_heggemoen</t>
+  </si>
+  <si>
+    <t>mattias_lundgren,christel_molin</t>
+  </si>
+  <si>
+    <t>robin_roosenstein,ruben_keuter</t>
+  </si>
+  <si>
+    <t>ralph_kranz,beier_zhang</t>
+  </si>
+  <si>
+    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
+  </si>
+  <si>
+    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
+  </si>
+  <si>
+    <t>christian_neergaard</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
+  </si>
+  <si>
+    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
+  </si>
+  <si>
+    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
+  </si>
+  <si>
+    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
+  </si>
+  <si>
+    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous,vlad_tarverdov</t>
+  </si>
+  <si>
+    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
+  </si>
+  <si>
+    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
+  </si>
+  <si>
+    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
+  </si>
+  <si>
+    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
+  </si>
+  <si>
+    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
+  </si>
+  <si>
+    <t>gustaf_sjoeholm,erica_blomberg</t>
+  </si>
+  <si>
+    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
+  </si>
+  <si>
+    <t>louise_johansson</t>
+  </si>
+  <si>
+    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
+  </si>
+  <si>
+    <t>dongxiao_sun</t>
+  </si>
+  <si>
+    <t>akos_kiss,alice_bontridder,loic_helleputte</t>
+  </si>
+  <si>
+    <t>tom_wharfe,matt_galvin,jon_higgins</t>
+  </si>
+  <si>
+    <t>bob_valk,simon_mueller,koen_peters</t>
+  </si>
+  <si>
+    <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
+  </si>
+  <si>
+    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,richard_vermeulen,juliane_weinschenk,ana_bjelcic_o,andre_tollefsen,attila_hudetz,vassil_loukarsky_o,sheilla_campos_o,chi_lo_o,dennis_mujic,emilia_dera_o,fredrik_aslund1,gergo_almasi,martin_olsson,marc_bloch</t>
+  </si>
+  <si>
+    <t>scott_baines,joris_coolen</t>
+  </si>
+  <si>
+    <t>martin_rieder</t>
+  </si>
+  <si>
+    <t>gerald_krainer,anastasia_yu</t>
+  </si>
+  <si>
+    <t>zhongjie_fu,mingqiang_li,wei_li,matteo_mao</t>
+  </si>
+  <si>
+    <t>connor_mccoy,zhen_lai</t>
+  </si>
+  <si>
+    <t>hailee_han</t>
+  </si>
+  <si>
+    <t>yue_ma2</t>
+  </si>
+  <si>
+    <t>Pallab_medhi</t>
+  </si>
+  <si>
+    <t>beckie_fan</t>
+  </si>
+  <si>
+    <t>brandy_lu</t>
+  </si>
+  <si>
+    <t>sharon_zhou,amber_zhu</t>
+  </si>
+  <si>
+    <t>finn_xue</t>
+  </si>
+  <si>
+    <t>berry_spee</t>
+  </si>
+  <si>
+    <t>jessie_xu</t>
+  </si>
+  <si>
+    <t>lina_liu</t>
+  </si>
+  <si>
+    <t>chao_li19</t>
+  </si>
+  <si>
+    <t>yongshi_xu</t>
+  </si>
+  <si>
+    <t>jiajun_yuan</t>
+  </si>
+  <si>
+    <t>syang_liu</t>
+  </si>
+  <si>
+    <t>jingqi_zhuang,adam_ghadban,zhongye_xue1</t>
+  </si>
+  <si>
+    <t>marin_scholz</t>
+  </si>
+  <si>
+    <t>fangpin_weng</t>
+  </si>
+  <si>
+    <t>peng_wang17</t>
+  </si>
+  <si>
+    <t>vince_bi,carole_zhang,gavin_hu</t>
+  </si>
+  <si>
+    <t>mohamed_rizwan</t>
+  </si>
+  <si>
+    <t>meng_li3</t>
+  </si>
+  <si>
+    <t>yongmou_huang</t>
+  </si>
+  <si>
     <t>henry_shen</t>
   </si>
   <si>
-    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,chengguo_shi</t>
-  </si>
-  <si>
-    <t>yu_huang6</t>
-  </si>
-  <si>
-    <t>moritz_wefelscheid,lukas_storch</t>
-  </si>
-  <si>
-    <t>finn_xue</t>
-  </si>
-  <si>
-    <t>benjamin_steinmetz,pep_pujolmur,marius_keil,sebastian_salera,stefan_schneider,olga_khryapchenkova,yalcin_parlak</t>
-  </si>
-  <si>
-    <t>niklas_andersson,stephen_liu, haiyun_zhou, junye_shao,francis_ji,jackson_xu1,robert_huang</t>
-  </si>
-  <si>
-    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
-  </si>
-  <si>
-    <t>christian_rebo</t>
-  </si>
-  <si>
-    <t>sherry_li3,joy_zhu1,eunice_ho,maxine_yu,liam_lu,ranee_miao</t>
-  </si>
-  <si>
-    <t>bella_lin,yantao_zhou,daisy_xiao,tristan_vonballuseck,zoey_li1,christian_sieling,anastasia_kozachenko,caesar_qian</t>
-  </si>
-  <si>
-    <t>heming_li,shuang_wu3,di_hu1,wanli_ren,ziye_chen,winnie_wu1,wenchao_cui1,charlotte_liu1,sarah_opfer,chen_gong,helen_baerbock,hiroshi_watari,qianling_duan</t>
-  </si>
-  <si>
-    <t>johan_emanuelsson,clare_mummery,pepijn_gregorowitsch,simone_barnabei</t>
-  </si>
-  <si>
-    <t>luis_portas,fernanda_mejia,gregory_anderson,tim_weener</t>
-  </si>
-  <si>
-    <t>joachim_pach</t>
-  </si>
-  <si>
-    <t>wenlu_ma,jerry_liu3,echo_zeng,wei_qiang,bingqing_tong1,joy_yin,effy_song,jessica_fu,zitong_pan</t>
-  </si>
-  <si>
-    <t>jasper_deman</t>
-  </si>
-  <si>
-    <t>johnny_cheung,yang_huang,wenwen_jiang</t>
-  </si>
-  <si>
-    <t>lisong_meng</t>
-  </si>
-  <si>
-    <t>chris_chen1,alissia_lehle,anastasia_kozachenko,anja_plank1,veronica_akerblad,charilaos_kantas,marina_paradiso,julia_bock,julia_lichtmannecker</t>
-  </si>
-  <si>
-    <t>chris_chen1</t>
-  </si>
-  <si>
-    <t>derk_timmer,arun_paragh,boris_mihailovic,catherine_zhu</t>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
+    <t>moritz_wefelscheid</t>
+  </si>
+  <si>
+    <t>benjamin_steinmetz</t>
+  </si>
+  <si>
+    <t>niklas_andersson</t>
+  </si>
+  <si>
+    <t>sarah_ding</t>
+  </si>
+  <si>
+    <t>ranee_miao</t>
+  </si>
+  <si>
+    <t>christian_sieling</t>
+  </si>
+  <si>
+    <t>chen_gong</t>
+  </si>
+  <si>
+    <t>johan_emanuelsson</t>
+  </si>
+  <si>
+    <t>luis_portas</t>
+  </si>
+  <si>
+    <t>wenlu_ma</t>
+  </si>
+  <si>
+    <t>johnny_cheung</t>
+  </si>
+  <si>
+    <t>akos_kiss</t>
+  </si>
+  <si>
+    <t>derk_timmer</t>
   </si>
   <si>
     <t>helen_baerbock</t>
   </si>
   <si>
-    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
-  </si>
-  <si>
-    <t>yujie_jia,daniela_wimmer_nio_io</t>
-  </si>
-  <si>
-    <t>chenqi_peng,timo_herrmann,julie_jiang,alexandre_gallo,sven_conrad,manuel_endres,jiabao_xu</t>
-  </si>
-  <si>
-    <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
-  </si>
-  <si>
-    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden</t>
-  </si>
-  <si>
-    <t>alexander_kunith,wouter_hollander,Tina_FAN,tobias_schrempf,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin, nicky_heidrich, hao_yang1,richard_zhang1, xilian_yu,matrai_peter,depraute_rene, jianwei_yin</t>
-  </si>
-  <si>
-    <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
-  </si>
-  <si>
-    <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
-  </si>
-  <si>
-    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,vlad_tarverdov,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,karam_alnafous,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
+    <t>paolo_cova</t>
+  </si>
+  <si>
+    <t>chenqi_peng</t>
+  </si>
+  <si>
+    <t>brian_zhang</t>
+  </si>
+  <si>
+    <t>thijs_meijling</t>
+  </si>
+  <si>
+    <t>shaohua_guo</t>
   </si>
   <si>
     <t>marius_hayler</t>
@@ -382,216 +685,75 @@
     <t>mattias_lundgren</t>
   </si>
   <si>
-    <t>robin_roosenstein,ruben_keuter</t>
+    <t>ruben_keuter</t>
   </si>
   <si>
     <t>ralph_kranz</t>
   </si>
   <si>
-    <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io</t>
-  </si>
-  <si>
-    <t>peter_marquard,mads_laustsen,marie_leeuwen,daniel_saxov,rasmus_huus,nick_nielsen,rasmus_jorgensen,hasan_abbasi,patrick_hogenhav</t>
-  </si>
-  <si>
-    <t>danni_dahl,camilla_bowlin,jonathan_stage,anja_bruun,maria_bonnerup</t>
-  </si>
-  <si>
-    <t>christian_neergaard</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic,christian_almind,frederik_rorth,pernille_vive,marc_hatt,daniel_dalsgaard</t>
-  </si>
-  <si>
-    <t>niklas_hirth,shanan_lasrado,christian_bode,tobias_beier,behnoud_behmanesh,andreas_roehl,marco_spiertz,daniel_mergler,daniel_sturm,moritz_croessmann,michael_hathaway,andrew_parsons,andreas_sedlak,julien_jung,julien_braunholz,roy_kern,alexander_kern,saeed_erfani,roberto_pavon,benjamin_hirschfeld,stefan_pielka,fabian_holst,patrick_mitchell,marcel_bartelik,minh_tran,tanja_pyka</t>
-  </si>
-  <si>
-    <t>julian_schreiner,ekrem_tekinoez,yi_shen3,sebastian_buesing,tom_bauer,devis_duong,marco_wegner,sven_muckert,stephan_mayer,tobias_niederhofer,elise_chen,sean_richardson,martin_hock,florian_fischer,moritz_bayer,robin_haeger,georg_bruce,ole_gravenhorst,florian_treml,sebastian_hillenbach,tobias_elie,bjoern_baumann,waled_enani,sankari_hilael,stephan_schulz,stephane_burger,jacqueline_schroeder,ahmad_elkadi,zakaria_khalaf,silvan_mesic,dennis_gerhard,francesco_mureddu,dawid_mindur,jan_bierstedt,ruven_waldner,harald_krist,marlies_hagenbach,jan_krueger,antonia_hauf,yaghy_peter,dipak_kandel,jilly_hu,maximilian_sand,philipp_maier,dennis_konieczny,sedat_taspinar,leon_reiff</t>
-  </si>
-  <si>
-    <t>christian_wiegand,claudia_huebner,belinda_ulrich,wadim_buchmueller,matthias_becher,stephanie_strobel,alexander_beier,georgina_treen,emilie_jung,philipp_leinekugel,claudio_felice</t>
-  </si>
-  <si>
-    <t>isabell_delitz,simon_fiala,jan_bode,patricia_hammes,karam_alnafous,vlad_tarverdov</t>
-  </si>
-  <si>
-    <t>willemien_hobbelink,minko_sijpestein,tristan_hamelink,koen_swennen,maarten_mulder,ted_olsthoorn,vas_morrien,daan_dorp,santo_bravo</t>
-  </si>
-  <si>
-    <t>tim_noort,julien_luijten,silvia_leeuw,mark_heiligers,maxime_gottlieb</t>
-  </si>
-  <si>
-    <t>onno_duimel,marcel_rooijen,erwin_wolting,yoram_hout,marco_verweij,roelof_kluiver,adem_yerlikaya,nadim_mohammad,gert_thomas,stefan_gerea</t>
-  </si>
-  <si>
-    <t>haakon_klem,karol_wodyk,sadia_Aden_Mohamed,farid_ofkir,sefa_cabar,jermaine_odom,josephus_padilla,faiz_aslam,artem_garibian,ali_kazmi,mathias_lindbeck,kristiane_larsson,per_brandvik,sammy_hussain,martin_widing,william_tjaum,andreas_kyriakou1,jalil_saleem,jay_murugananthan,leonarnt_nasai,pawel_frackowiak,kai_parsa,tayyab_intasar,stig_lura,jonchristian_aardal</t>
-  </si>
-  <si>
-    <t>eirik_aspaas,stine_skyseth,manbir_singh,magnus_lovrod,asbjoern_mitusch,magne_heggemoen,an_ho,renate_eliesen1,monica_sand,romina_dehzani,vijay_sharma,tom_brueland,jingyi_qu,marthe_grindalen,drazen_duric,simon_rask,sunniva_leonsen,jawad_afzali,sebastian_huus,haakon_klette,alexander_spiridonov,celine_knapskog,andreas_nyman,sebastian_hellerud,jangir_taher,jeppe_schjerpen,ola_dalby,bent_nygaard,jonas_vaage,martin_nevstad,nicolai_dammen,patrik_hjelmseth,otto_hansen,thomas_davis,marius_bratli,glenn_wallander,xuesong_chen1,jimmy_nguyen,kjersti_naeringsrud,bawan_omar,ronit_aggarwal,morten_vorvik,mikkel_knagenhjelm,ola_smines,karolina_wolnik,sara_meloysund</t>
-  </si>
-  <si>
-    <t>gustaf_sjoeholm,erica_blomberg</t>
-  </si>
-  <si>
-    <t>uffe_gustafsson,robin_wiman,johanna_nilsson,kenneth_forslund,niklas_gustafson,ackis_grammenidis,marcel_cucu,carin_lundberg,mike_blomquist,sebastian_kare,adrian_kare,elias_said,frida_eriksson</t>
-  </si>
-  <si>
-    <t>louise_johansson</t>
-  </si>
-  <si>
-    <t>andreas_loeoev,karzan_mirza,victor_lingfjord,robert_said,janerik_eriksson,david_jonsson,sam_lindfors,rabih_botrous,rashed_almawed,daniel_erdtman,jenny_samuelsson</t>
-  </si>
-  <si>
-    <t>dongxiao_sun</t>
-  </si>
-  <si>
-    <t>akos_kiss,alice_bontridder,loic_helleputte</t>
-  </si>
-  <si>
-    <t>tom_wharfe,matt_galvin,jon_higgins</t>
-  </si>
-  <si>
-    <t>bob_valk,simon_mueller,koen_peters</t>
-  </si>
-  <si>
-    <t>jorry_zhou,anastasiia_kovalenko,kangrui_wang,siyang_chen2,estefania_velez</t>
-  </si>
-  <si>
-    <t>philip_aschendorf,roland_parragh,tibor_papp,hans_beyer,mate_mester,szilard_vass,alvaro_garcia,melissa_cs,kasper_klint,daniel_wijers,daniel_nielsen,richard_vermeulen,juliane_weinschenk,ana_bjelcic_o,andre_tollefsen,attila_hudetz,vassil_loukarsky_o,sheilla_campos_o,chi_lo_o,dennis_mujic,emilia_dera_o,fredrik_aslund1,gergo_almasi,martin_olsson,marc_bloch</t>
-  </si>
-  <si>
-    <t>scott_baines,joris_coolen</t>
-  </si>
-  <si>
-    <t>martin_rieder</t>
+    <t>rasmus_huus</t>
+  </si>
+  <si>
+    <t>anja_bruun</t>
+  </si>
+  <si>
+    <t>dejvid_noinovic</t>
+  </si>
+  <si>
+    <t>andreas_roehl</t>
+  </si>
+  <si>
+    <t>elise_chen</t>
+  </si>
+  <si>
+    <t>christian_wiegand</t>
+  </si>
+  <si>
+    <t>tristan_hamelink</t>
+  </si>
+  <si>
+    <t>silvia_leeuw</t>
+  </si>
+  <si>
+    <t>onno_duimel</t>
+  </si>
+  <si>
+    <t>sadia_Aden_Mohamed</t>
+  </si>
+  <si>
+    <t>an_ho</t>
+  </si>
+  <si>
+    <t>erica_blomberg</t>
+  </si>
+  <si>
+    <t>niklas_gustafson</t>
+  </si>
+  <si>
+    <t>andreas_loeoev</t>
+  </si>
+  <si>
+    <t>alice_bontridder</t>
+  </si>
+  <si>
+    <t>matt_galvin</t>
+  </si>
+  <si>
+    <t>bob_valk</t>
+  </si>
+  <si>
+    <t>hongyi_ji</t>
+  </si>
+  <si>
+    <t>philip_aschendorf</t>
+  </si>
+  <si>
+    <t>scott_baines</t>
   </si>
   <si>
     <t>gerald_krainer</t>
   </si>
   <si>
-    <t>zhongjie_fu,mingqiang_li,wei_li,matteo_mao</t>
-  </si>
-  <si>
-    <t>chengguo_shi</t>
-  </si>
-  <si>
-    <t>moritz_wefelscheid</t>
-  </si>
-  <si>
-    <t>benjamin_steinmetz</t>
-  </si>
-  <si>
-    <t>niklas_andersson</t>
-  </si>
-  <si>
-    <t>sarah_ding</t>
-  </si>
-  <si>
-    <t>ranee_miao</t>
-  </si>
-  <si>
-    <t>christian_sieling</t>
-  </si>
-  <si>
-    <t>chen_gong</t>
-  </si>
-  <si>
-    <t>johan_emanuelsson</t>
-  </si>
-  <si>
-    <t>luis_portas</t>
-  </si>
-  <si>
-    <t>wenlu_ma</t>
-  </si>
-  <si>
-    <t>johnny_cheung</t>
-  </si>
-  <si>
-    <t>akos_kiss</t>
-  </si>
-  <si>
-    <t>derk_timmer</t>
-  </si>
-  <si>
-    <t>paolo_cova</t>
-  </si>
-  <si>
-    <t>chenqi_peng</t>
-  </si>
-  <si>
-    <t>brian_zhang</t>
-  </si>
-  <si>
-    <t>thijs_meijling</t>
-  </si>
-  <si>
-    <t>shaohua_guo</t>
-  </si>
-  <si>
-    <t>ruben_keuter</t>
-  </si>
-  <si>
-    <t>rasmus_huus</t>
-  </si>
-  <si>
-    <t>anja_bruun</t>
-  </si>
-  <si>
-    <t>dejvid_noinovic</t>
-  </si>
-  <si>
-    <t>andreas_roehl</t>
-  </si>
-  <si>
-    <t>elise_chen</t>
-  </si>
-  <si>
-    <t>christian_wiegand</t>
-  </si>
-  <si>
-    <t>tristan_hamelink</t>
-  </si>
-  <si>
-    <t>silvia_leeuw</t>
-  </si>
-  <si>
-    <t>onno_duimel</t>
-  </si>
-  <si>
-    <t>sadia_Aden_Mohamed</t>
-  </si>
-  <si>
-    <t>an_ho</t>
-  </si>
-  <si>
-    <t>erica_blomberg</t>
-  </si>
-  <si>
-    <t>niklas_gustafson</t>
-  </si>
-  <si>
-    <t>andreas_loeoev</t>
-  </si>
-  <si>
-    <t>alice_bontridder</t>
-  </si>
-  <si>
-    <t>matt_galvin</t>
-  </si>
-  <si>
-    <t>bob_valk</t>
-  </si>
-  <si>
-    <t>hongyi_ji</t>
-  </si>
-  <si>
-    <t>philip_aschendorf</t>
-  </si>
-  <si>
-    <t>scott_baines</t>
-  </si>
-  <si>
     <t>COE</t>
   </si>
   <si>
@@ -737,6 +899,12 @@
   </si>
   <si>
     <t>An Ho,Niklas Gustafson,Rasmus Huus,Elise Chen,Tristan Hamelink</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1262,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,2061 +1299,2763 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="J4" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="K5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="K6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="K8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="K11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="K13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="J14" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="J15" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="J16" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="J19" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="J20" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>292</v>
+      </c>
+      <c r="L20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>293</v>
+      </c>
+      <c r="L21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>293</v>
+      </c>
+      <c r="L22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>294</v>
+      </c>
+      <c r="L23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>291</v>
+      </c>
+      <c r="L24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>294</v>
+      </c>
+      <c r="L25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>294</v>
+      </c>
+      <c r="L26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>149</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>221</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
       <c r="H44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>252</v>
+      </c>
+      <c r="L45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="L47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="H52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="L53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="H54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>252</v>
+      </c>
+      <c r="L54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>252</v>
+      </c>
+      <c r="L56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="G58" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="L59" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="G61" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="L64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="L66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="G67" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="L67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="L68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="L69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="L70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="L71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="L72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="L73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G74" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="L74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="L75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="L76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="G77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="L77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" t="s">
+        <v>176</v>
+      </c>
+      <c r="L78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>177</v>
+      </c>
+      <c r="L79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="s">
+        <v>178</v>
+      </c>
+      <c r="L80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>178</v>
+      </c>
+      <c r="L81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" t="s">
+        <v>179</v>
+      </c>
+      <c r="L82" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" t="s">
+        <v>180</v>
+      </c>
+      <c r="L83" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" t="s">
+        <v>181</v>
+      </c>
+      <c r="L84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="F85" t="s">
+        <v>182</v>
+      </c>
+      <c r="L85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>184</v>
+      </c>
+      <c r="L87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>185</v>
+      </c>
+      <c r="L88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="F78" t="s">
-        <v>151</v>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>186</v>
+      </c>
+      <c r="L89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>187</v>
+      </c>
+      <c r="L90" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>188</v>
+      </c>
+      <c r="L91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>189</v>
+      </c>
+      <c r="L92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>190</v>
+      </c>
+      <c r="L93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>191</v>
+      </c>
+      <c r="L94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+      <c r="L95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>193</v>
+      </c>
+      <c r="L96" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>194</v>
+      </c>
+      <c r="L97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>195</v>
+      </c>
+      <c r="L98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>196</v>
+      </c>
+      <c r="L99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>197</v>
+      </c>
+      <c r="L100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>198</v>
+      </c>
+      <c r="L101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>199</v>
+      </c>
+      <c r="L102" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="307">
   <si>
     <t>Department</t>
   </si>
@@ -349,6 +349,21 @@
     <t>District_Technical_Support_Sub-team</t>
   </si>
   <si>
+    <t>Power_Netherlands</t>
+  </si>
+  <si>
+    <t>Power_Norway</t>
+  </si>
+  <si>
+    <t>Power_Sweden</t>
+  </si>
+  <si>
+    <t>Power_Denmark</t>
+  </si>
+  <si>
+    <t>Power_Germany</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -614,6 +629,21 @@
   </si>
   <si>
     <t>yongmou_huang</t>
+  </si>
+  <si>
+    <t>daniel_groot</t>
+  </si>
+  <si>
+    <t>espen_byrjall</t>
+  </si>
+  <si>
+    <t>kajsa_ivansson</t>
+  </si>
+  <si>
+    <t>mads_pedersen</t>
+  </si>
+  <si>
+    <t>ralph_kranz-acting</t>
   </si>
   <si>
     <t>henry_shen</t>
@@ -1262,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,31 +1341,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1346,31 +1376,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1381,31 +1411,31 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K4" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1416,31 +1446,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K5" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1451,31 +1481,31 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1486,31 +1516,31 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1521,31 +1551,31 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L8" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1556,31 +1586,31 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1591,31 +1621,31 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="J10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L10" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1626,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1635,25 +1665,25 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="J11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K11" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L11" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1664,7 +1694,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1673,25 +1703,25 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I12" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="J12" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1702,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1711,25 +1741,25 @@
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K13" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1740,7 +1770,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1749,25 +1779,25 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="J14" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L14" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1778,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1787,25 +1817,25 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J15" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L15" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1816,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1825,25 +1855,25 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="J16" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K16" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L16" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1854,7 +1884,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1863,25 +1893,25 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="J17" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K17" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L17" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1892,7 +1922,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1901,25 +1931,25 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="J18" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K18" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1930,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1939,25 +1969,25 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="J19" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L19" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1968,7 +1998,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1977,25 +2007,25 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J20" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2006,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2015,25 +2045,25 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L21" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2044,7 +2074,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2053,25 +2083,25 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L22" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2082,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2091,22 +2121,22 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L23" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2117,7 +2147,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2126,25 +2156,25 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K24" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2155,7 +2185,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2164,22 +2194,22 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K25" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L25" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2190,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2199,25 +2229,25 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="J26" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K26" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2228,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2237,16 +2267,16 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2257,7 +2287,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2269,7 +2299,7 @@
         <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2280,7 +2310,7 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2289,13 +2319,13 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H29" t="s">
         <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2306,7 +2336,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2318,7 +2348,7 @@
         <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2329,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2338,16 +2368,16 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2358,7 +2388,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2367,16 +2397,16 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2387,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2396,16 +2426,16 @@
         <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2416,7 +2446,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2425,13 +2455,13 @@
         <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
         <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2442,7 +2472,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2451,16 +2481,16 @@
         <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2471,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2480,16 +2510,16 @@
         <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2500,7 +2530,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2509,16 +2539,16 @@
         <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2529,7 +2559,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2538,13 +2568,13 @@
         <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2555,7 +2585,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2564,13 +2594,13 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2581,7 +2611,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2590,13 +2620,13 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2607,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2616,13 +2646,13 @@
         <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2633,7 +2663,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2642,13 +2672,13 @@
         <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L42" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2659,7 +2689,7 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2668,10 +2698,10 @@
         <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2682,7 +2712,7 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2694,7 +2724,7 @@
         <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2705,7 +2735,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2714,10 +2744,10 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L45" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2728,7 +2758,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2737,16 +2767,16 @@
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2757,7 +2787,7 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2766,16 +2796,16 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2786,7 +2816,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2795,13 +2825,13 @@
         <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2812,7 +2842,7 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2821,16 +2851,16 @@
         <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2841,7 +2871,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2853,7 +2883,7 @@
         <v>78</v>
       </c>
       <c r="L50" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2864,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2873,16 +2903,16 @@
         <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2893,7 +2923,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -2902,16 +2932,16 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2922,7 +2952,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2931,16 +2961,16 @@
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G53" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2951,7 +2981,7 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2960,13 +2990,13 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2977,7 +3007,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2989,7 +3019,7 @@
         <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3000,7 +3030,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3009,10 +3039,10 @@
         <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3023,7 +3053,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3032,10 +3062,10 @@
         <v>50</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L57" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3046,7 +3076,7 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3055,16 +3085,16 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3075,7 +3105,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3084,16 +3114,16 @@
         <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3104,7 +3134,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3113,16 +3143,16 @@
         <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L60" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3133,7 +3163,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3142,16 +3172,16 @@
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L61" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3162,7 +3192,7 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3171,16 +3201,16 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L62" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3191,7 +3221,7 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3203,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="L63" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3214,7 +3244,7 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3223,16 +3253,16 @@
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L64" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3243,7 +3273,7 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3252,16 +3282,16 @@
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L65" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3272,7 +3302,7 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3281,13 +3311,13 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L66" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3298,7 +3328,7 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3307,16 +3337,16 @@
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L67" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3327,19 +3357,19 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L68" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3350,22 +3380,22 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G69" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H69" t="s">
         <v>78</v>
       </c>
       <c r="L69" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3376,7 +3406,7 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3385,13 +3415,13 @@
         <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L70" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3402,7 +3432,7 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3411,13 +3441,13 @@
         <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L71" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3428,7 +3458,7 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3437,13 +3467,13 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L72" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3454,7 +3484,7 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3463,13 +3493,13 @@
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L73" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3480,7 +3510,7 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3489,13 +3519,13 @@
         <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L74" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3506,7 +3536,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3515,13 +3545,13 @@
         <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L75" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3532,7 +3562,7 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3541,13 +3571,13 @@
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L76" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3558,7 +3588,7 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -3567,13 +3597,13 @@
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L77" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3584,13 +3614,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L78" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3601,16 +3631,16 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L79" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3621,13 +3651,13 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L80" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3638,16 +3668,16 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L81" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3658,13 +3688,13 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3675,13 +3705,13 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L83" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3692,13 +3722,13 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3709,13 +3739,13 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L85" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3726,16 +3756,16 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3746,16 +3776,16 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L87" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3766,16 +3796,16 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3786,16 +3816,16 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L89" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3806,16 +3836,16 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3826,16 +3856,16 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3846,16 +3876,16 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L92" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3866,16 +3896,16 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L93" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3886,16 +3916,16 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L94" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3906,16 +3936,16 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L95" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3926,16 +3956,16 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L96" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3946,16 +3976,16 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L97" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3966,16 +3996,16 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L98" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -3986,16 +4016,16 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L99" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4006,16 +4036,16 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L100" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4026,16 +4056,16 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L101" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4046,16 +4076,116 @@
         <v>110</v>
       </c>
       <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>111</v>
       </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>199</v>
-      </c>
-      <c r="L102" t="s">
-        <v>295</v>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" t="s">
+        <v>226</v>
+      </c>
+      <c r="L103" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" t="s">
+        <v>206</v>
+      </c>
+      <c r="G104" t="s">
+        <v>226</v>
+      </c>
+      <c r="L104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" t="s">
+        <v>226</v>
+      </c>
+      <c r="L105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" t="s">
+        <v>208</v>
+      </c>
+      <c r="G106" t="s">
+        <v>226</v>
+      </c>
+      <c r="L106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" t="s">
+        <v>209</v>
+      </c>
+      <c r="G107" t="s">
+        <v>226</v>
+      </c>
+      <c r="L107" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -370,7 +370,7 @@
     <t>henry_shen, chenfeng_zou</t>
   </si>
   <si>
-    <t>arnaud_rongy,chris_di,emil_andersson, fatima_galean, katalin_konye,chengguo_shi</t>
+    <t>arnaud_rongy,chris_di, fatima_galean, katalin_konye,chengguo_shi,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>yu_huang6</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="307">
   <si>
     <t>Department</t>
   </si>
@@ -370,7 +370,7 @@
     <t>henry_shen, chenfeng_zou</t>
   </si>
   <si>
-    <t>arnaud_rongy,chris_di, fatima_galean, katalin_konye,chengguo_shi,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
+    <t>arnaud_rongy, fatima_galean, katalin_konye,chengguo_shi,yini_shi,shuqiao_ranke_o,chris_di,marietta_kasi,laszlo_rakonczai,robin_akergren,thomas_choi</t>
   </si>
   <si>
     <t>yu_huang6</t>
@@ -388,7 +388,7 @@
     <t>niklas_andersson,stephen_liu, haiyun_zhou, junye_shao,francis_ji,jackson_xu1,robert_huang</t>
   </si>
   <si>
-    <t>sarah_ding,wouter_hollander,shushan_khachatryan</t>
+    <t>sarah_ding,shushan_khachatryan</t>
   </si>
   <si>
     <t>christian_rebo</t>
@@ -436,7 +436,7 @@
     <t>helen_baerbock,jing_hu</t>
   </si>
   <si>
-    <t>mara_pitiriciu,paolo_cova,fab_scognamiglio,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
+    <t>mara_pitiriciu,paolo_cova,aldo_rosales,fab_scognamiglio,novak_birisic,justin_chen1</t>
   </si>
   <si>
     <t>yujie_jia,daniela_wimmer_nio_io</t>
@@ -451,10 +451,10 @@
     <t>brian_zhang,sami_li,chutong_liu,dale_li</t>
   </si>
   <si>
-    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,chan_jun,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden,chan_jun</t>
-  </si>
-  <si>
-    <t>alexander_kunith,wouter_hollander,tina_fan,tobias_schrempf,paula_ramirez,renata_wolak, kajsa_ivansson,vincent_wen,marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin, nicky_heidrich, hao_yang1,richard_zhang1, xilian_yu,matrai_peter,depraute_rene, jianwei_yin</t>
+    <t>thijs_meijling,aldo_rosales,arun_paragh,boris_mihailovic,catherine_zhu,sherry_li3,derk_timmer,evelyn_zhao,fab_scognamiglio,ranee_miao,paolo_cova,novak_birisic,maxine_yu,mara_pitiriciu,liam_lu,justin_chen1,jochen_elster,ryan_stodden,chan_jun</t>
+  </si>
+  <si>
+    <t>alexander_kunith,wouter_hollander,tina_fan,tobias_schrempf,paula_ramirez,renata_wolak,vincent_wen,marianne_moelmen,daniel_medawar,richard_wijk, rikard_svensson, michael_salomon, steinar_sundelin, nicky_heidrich, hao_yang1,richard_zhang1, xilian_yu,matrai_peter,depraute_rene, jianwei_yin</t>
   </si>
   <si>
     <t>averie_zhu,bob_valk,tim_weener,brian_zhang,sizhe_huang,simone_barnabei,simon_mueller,shaohua_guo,sami_li,chutong_liu,clare_mummery,dale_li,fernanda_mejia,gregory_anderson,pepijn_gregorowitsch,luis_portas,koen_peters,johan_emanuelsson,joachim_pach</t>
@@ -469,7 +469,7 @@
     <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io,bana_boubou</t>
   </si>
   <si>
-    <t>marius_hayler, usman_abbas1, magne_heggemoen</t>
+    <t>marius_hayler, usman_abbas1</t>
   </si>
   <si>
     <t>mattias_lundgren,christel_molin</t>
@@ -583,76 +583,76 @@
     <t>sharon_zhou,amber_zhu</t>
   </si>
   <si>
+    <t>berry_spee</t>
+  </si>
+  <si>
+    <t>jessie_xu</t>
+  </si>
+  <si>
+    <t>lina_liu</t>
+  </si>
+  <si>
+    <t>chao_li19</t>
+  </si>
+  <si>
+    <t>yongshi_xu</t>
+  </si>
+  <si>
+    <t>jiajun_yuan</t>
+  </si>
+  <si>
+    <t>syang_liu</t>
+  </si>
+  <si>
+    <t>jingqi_zhuang,adam_ghadban,zhongye_xue1</t>
+  </si>
+  <si>
+    <t>marin_scholz</t>
+  </si>
+  <si>
+    <t>fangpin_weng</t>
+  </si>
+  <si>
+    <t>peng_wang17</t>
+  </si>
+  <si>
+    <t>vince_bi,carole_zhang,gavin_hu</t>
+  </si>
+  <si>
+    <t>mohamed_rizwan</t>
+  </si>
+  <si>
+    <t>meng_li3</t>
+  </si>
+  <si>
+    <t>yongmou_huang</t>
+  </si>
+  <si>
+    <t>daniel_groot</t>
+  </si>
+  <si>
+    <t>espen_byrjall</t>
+  </si>
+  <si>
+    <t>kajsa_ivansson</t>
+  </si>
+  <si>
+    <t>mads_pedersen</t>
+  </si>
+  <si>
+    <t>ralph_kranz-acting</t>
+  </si>
+  <si>
+    <t>henry_shen</t>
+  </si>
+  <si>
+    <t>chengguo_shi</t>
+  </si>
+  <si>
+    <t>moritz_wefelscheid</t>
+  </si>
+  <si>
     <t>finn_xue</t>
-  </si>
-  <si>
-    <t>berry_spee</t>
-  </si>
-  <si>
-    <t>jessie_xu</t>
-  </si>
-  <si>
-    <t>lina_liu</t>
-  </si>
-  <si>
-    <t>chao_li19</t>
-  </si>
-  <si>
-    <t>yongshi_xu</t>
-  </si>
-  <si>
-    <t>jiajun_yuan</t>
-  </si>
-  <si>
-    <t>syang_liu</t>
-  </si>
-  <si>
-    <t>jingqi_zhuang,adam_ghadban,zhongye_xue1</t>
-  </si>
-  <si>
-    <t>marin_scholz</t>
-  </si>
-  <si>
-    <t>fangpin_weng</t>
-  </si>
-  <si>
-    <t>peng_wang17</t>
-  </si>
-  <si>
-    <t>vince_bi,carole_zhang,gavin_hu</t>
-  </si>
-  <si>
-    <t>mohamed_rizwan</t>
-  </si>
-  <si>
-    <t>meng_li3</t>
-  </si>
-  <si>
-    <t>yongmou_huang</t>
-  </si>
-  <si>
-    <t>daniel_groot</t>
-  </si>
-  <si>
-    <t>espen_byrjall</t>
-  </si>
-  <si>
-    <t>kajsa_ivansson</t>
-  </si>
-  <si>
-    <t>mads_pedersen</t>
-  </si>
-  <si>
-    <t>ralph_kranz-acting</t>
-  </si>
-  <si>
-    <t>henry_shen</t>
-  </si>
-  <si>
-    <t>chengguo_shi</t>
-  </si>
-  <si>
-    <t>moritz_wefelscheid</t>
   </si>
   <si>
     <t>benjamin_steinmetz</t>
@@ -1292,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,7 +1350,7 @@
         <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
         <v>256</v>
@@ -1385,7 +1385,7 @@
         <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
         <v>256</v>
@@ -1455,7 +1455,7 @@
         <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
         <v>256</v>
@@ -1490,7 +1490,7 @@
         <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
         <v>256</v>
@@ -3773,7 +3773,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
         <v>116</v>
@@ -3793,7 +3793,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
         <v>116</v>
@@ -3813,7 +3813,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
         <v>116</v>
@@ -3833,7 +3833,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
         <v>116</v>
@@ -3853,7 +3853,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>116</v>
@@ -3873,7 +3873,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
         <v>116</v>
@@ -3893,7 +3893,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
         <v>116</v>
@@ -3913,7 +3913,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>116</v>
@@ -3933,7 +3933,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
         <v>116</v>
@@ -3953,7 +3953,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
         <v>116</v>
@@ -3973,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
         <v>116</v>
@@ -3993,7 +3993,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
         <v>116</v>
@@ -4013,7 +4013,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>116</v>
@@ -4033,7 +4033,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
         <v>116</v>
@@ -4053,7 +4053,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
@@ -4073,19 +4073,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
         <v>116</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>204</v>
       </c>
+      <c r="G102" t="s">
+        <v>226</v>
+      </c>
       <c r="L102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4093,7 +4093,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
@@ -4113,7 +4113,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
         <v>116</v>
@@ -4133,7 +4133,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
         <v>116</v>
@@ -4153,7 +4153,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
         <v>116</v>
@@ -4165,26 +4165,6 @@
         <v>226</v>
       </c>
       <c r="L106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" t="s">
-        <v>209</v>
-      </c>
-      <c r="G107" t="s">
-        <v>226</v>
-      </c>
-      <c r="L107" t="s">
         <v>306</v>
       </c>
     </row>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="309">
   <si>
     <t>Department</t>
   </si>
@@ -364,6 +364,9 @@
     <t>Power_Germany</t>
   </si>
   <si>
+    <t>CMQ_Assurance_Team</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -641,6 +644,9 @@
   </si>
   <si>
     <t>ralph_kranz-acting</t>
+  </si>
+  <si>
+    <t>brett_pan</t>
   </si>
   <si>
     <t>henry_shen</t>
@@ -1292,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,31 +1347,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1376,31 +1382,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1411,31 +1417,31 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1446,31 +1452,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1481,31 +1487,31 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1516,31 +1522,31 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1551,31 +1557,31 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1586,31 +1592,31 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1621,31 +1627,31 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1656,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1665,25 +1671,25 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1694,7 +1700,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1703,25 +1709,25 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1732,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1741,25 +1747,25 @@
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1770,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1779,25 +1785,25 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1808,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1817,25 +1823,25 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1846,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1855,25 +1861,25 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1884,7 +1890,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1893,25 +1899,25 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1922,7 +1928,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1931,25 +1937,25 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1960,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1969,25 +1975,25 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1998,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2007,25 +2013,25 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2036,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2045,25 +2051,25 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2074,7 +2080,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2083,25 +2089,25 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2112,7 +2118,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2121,22 +2127,22 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2147,7 +2153,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2156,25 +2162,25 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2185,7 +2191,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2194,22 +2200,22 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L25" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2220,7 +2226,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2229,25 +2235,25 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2258,7 +2264,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2267,16 +2273,16 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2287,7 +2293,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2299,7 +2305,7 @@
         <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2310,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2319,13 +2325,13 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
         <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2336,7 +2342,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2348,7 +2354,7 @@
         <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2359,7 +2365,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2368,16 +2374,16 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2388,7 +2394,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2397,16 +2403,16 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2417,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2426,16 +2432,16 @@
         <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2446,7 +2452,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2455,13 +2461,13 @@
         <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H34" t="s">
         <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2472,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2481,16 +2487,16 @@
         <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2501,7 +2507,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2510,16 +2516,16 @@
         <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2530,7 +2536,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2539,16 +2545,16 @@
         <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2559,7 +2565,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2568,13 +2574,13 @@
         <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2585,7 +2591,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2594,13 +2600,13 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2611,7 +2617,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2620,13 +2626,13 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2637,7 +2643,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2646,13 +2652,13 @@
         <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2663,7 +2669,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2672,13 +2678,13 @@
         <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2689,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2698,10 +2704,10 @@
         <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2712,7 +2718,7 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2724,7 +2730,7 @@
         <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2735,7 +2741,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2744,10 +2750,10 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2758,7 +2764,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2767,16 +2773,16 @@
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2787,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2796,16 +2802,16 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2816,7 +2822,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2825,13 +2831,13 @@
         <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2842,7 +2848,7 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2851,16 +2857,16 @@
         <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2871,7 +2877,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2883,7 +2889,7 @@
         <v>78</v>
       </c>
       <c r="L50" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2894,7 +2900,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2903,16 +2909,16 @@
         <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L51" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2923,7 +2929,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -2932,16 +2938,16 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2952,7 +2958,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2961,16 +2967,16 @@
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2981,7 +2987,7 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2990,13 +2996,13 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L54" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3007,7 +3013,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3019,7 +3025,7 @@
         <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3030,7 +3036,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3039,10 +3045,10 @@
         <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3053,7 +3059,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3062,10 +3068,10 @@
         <v>50</v>
       </c>
       <c r="H57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3076,7 +3082,7 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3085,16 +3091,16 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G58" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3105,7 +3111,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3114,16 +3120,16 @@
         <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3134,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3143,16 +3149,16 @@
         <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L60" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3163,7 +3169,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3172,16 +3178,16 @@
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3192,7 +3198,7 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3201,16 +3207,16 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3221,7 +3227,7 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3233,7 +3239,7 @@
         <v>78</v>
       </c>
       <c r="L63" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3244,7 +3250,7 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3253,16 +3259,16 @@
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L64" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3273,7 +3279,7 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3282,16 +3288,16 @@
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L65" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3302,7 +3308,7 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3311,13 +3317,13 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L66" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3328,7 +3334,7 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3337,16 +3343,16 @@
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3357,19 +3363,19 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3380,22 +3386,22 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H69" t="s">
         <v>78</v>
       </c>
       <c r="L69" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3406,7 +3412,7 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3415,13 +3421,13 @@
         <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L70" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3432,7 +3438,7 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3441,13 +3447,13 @@
         <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3458,7 +3464,7 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3467,13 +3473,13 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L72" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3484,7 +3490,7 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3493,13 +3499,13 @@
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3510,7 +3516,7 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3519,13 +3525,13 @@
         <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L74" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3536,7 +3542,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3545,13 +3551,13 @@
         <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3562,7 +3568,7 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3571,13 +3577,13 @@
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3588,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -3597,13 +3603,13 @@
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L77" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3614,13 +3620,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3631,16 +3637,16 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L79" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3651,13 +3657,13 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3668,16 +3674,16 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L81" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3688,13 +3694,13 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3705,13 +3711,13 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3722,13 +3728,13 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3739,13 +3745,13 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3756,16 +3762,16 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3776,16 +3782,16 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3796,16 +3802,16 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3816,16 +3822,16 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3836,16 +3842,16 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L90" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3856,16 +3862,16 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3876,16 +3882,16 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3896,16 +3902,16 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3916,16 +3922,16 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L94" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3936,16 +3942,16 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L95" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3956,16 +3962,16 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L96" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3976,16 +3982,16 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L97" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3996,16 +4002,16 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L98" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4016,16 +4022,16 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4036,16 +4042,16 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L100" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4056,16 +4062,16 @@
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L101" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4076,16 +4082,16 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L102" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4096,16 +4102,16 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L103" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4116,16 +4122,16 @@
         <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L104" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4136,16 +4142,16 @@
         <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4156,16 +4162,30 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" t="s">
+        <v>209</v>
+      </c>
+      <c r="G106" t="s">
+        <v>228</v>
+      </c>
+      <c r="L106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="F106" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" t="s">
-        <v>226</v>
-      </c>
-      <c r="L106" t="s">
-        <v>306</v>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -808,7 +808,7 @@
     <t>User_Development</t>
   </si>
   <si>
-    <t>User Relation + SCR</t>
+    <t>User_Relation_and_SCR</t>
   </si>
   <si>
     <t>COE-Digital-Digital_Product_Launch,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_System_Operation</t>
@@ -865,10 +865,10 @@
     <t>EB-SO-Service_Planning</t>
   </si>
   <si>
-    <t>EB-UD-Communication,EB-UD-PR</t>
-  </si>
-  <si>
-    <t>EB-UD-Events</t>
+    <t>EB-UD-Communication_&amp;_Event,EB-UD-PR</t>
+  </si>
+  <si>
+    <t>EB-UD-Communication_&amp;_Event</t>
   </si>
   <si>
     <t>EB-UO-2B_Business_Product</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -466,7 +466,7 @@
     <t>bingqing_tong1,zitong_pan,yang_huang,wenwen_jiang,wenlu_ma,wei_qiang,echo_zeng,effy_song,lisong_meng,joy_yin,johnny_cheung,jessica_fu,jerry_liu3,jasper_deman</t>
   </si>
   <si>
-    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,laura_peschke,kasper_klint,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
+    <t>alissia_lehle,alvaro_garcia,ana_bjelcic_o,anastasia_kozachenko,anastasiia_kovalenko,andre_tollefsen,anja_plank1,attila_hudetz,veronica_akerblad,vassil_loukarsky_o,tibor_papp,szilard_vass,charilaos_kantas,siyang_chen2,sheilla_campos_o,scott_baines,chi_lo_o,daniel_nielsen,daniel_wijers,dennis_mujic,erik_penning,estefania_velez,emilia_dera_o,fredrik_aslund1,gergo_almasi,hans_beyer,richard_vermeulen,hongyi_ji,philip_aschendorf,melissa_cs,mate_mester,martin_olsson,marina_paradiso,marc_bloch,kasper_klint,juliane_weinschenk,julia_bock,julia_lichtmannecker,jorry_zhou,joris_coolen</t>
   </si>
   <si>
     <t>alexandre_gallo,yujie_jia,timo_herrmann,sven_conrad,chenqi_peng,manuel_endres,julie_jiang,jiabao_xu,daniela_wimmer_nio_io,bana_boubou</t>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
   <si>
     <t>Department</t>
   </si>
@@ -790,139 +790,7 @@
     <t>gerald_krainer</t>
   </si>
   <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>Sales_Operation</t>
-  </si>
-  <si>
-    <t>Market_Entry_and_Operation</t>
-  </si>
-  <si>
-    <t>Network_Infrastructure</t>
-  </si>
-  <si>
-    <t>Service_Operation</t>
-  </si>
-  <si>
-    <t>User_Development</t>
-  </si>
-  <si>
-    <t>User_Relation_and_SCR</t>
-  </si>
-  <si>
-    <t>COE-Digital-Digital_Product_Launch,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_System_Operation</t>
-  </si>
-  <si>
-    <t>COE-Finance-Controling,COE-Finance-Finance_Planning,COE-Finance-Finance_Admin,COE-Finance-Accounting,COE-Finance-Tax</t>
-  </si>
-  <si>
-    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery</t>
-  </si>
-  <si>
-    <t>COE-Legal-EU_Legal</t>
-  </si>
-  <si>
-    <t>COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch</t>
-  </si>
-  <si>
-    <t>COE-PD-Product_Experience,COE-PD-Vehicle_Quality</t>
-  </si>
-  <si>
-    <t>COE-PD-Product_Planning</t>
-  </si>
-  <si>
-    <t>COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Power-LTO</t>
-  </si>
-  <si>
-    <t>COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation</t>
-  </si>
-  <si>
-    <t>EB-BD-Retail_Financing,EB-BD-LeaseCo_Development</t>
-  </si>
-  <si>
-    <t>EB-Enabling-Market_Planning</t>
-  </si>
-  <si>
-    <t>EB-Enabling-Project_Management</t>
-  </si>
-  <si>
-    <t>EB-ND-Construction_Management</t>
-  </si>
-  <si>
-    <t>EB-ND-Design_Management</t>
-  </si>
-  <si>
-    <t>EB-ND-NIO_House_Operation</t>
-  </si>
-  <si>
-    <t>EB-SO-Service_Operation</t>
-  </si>
-  <si>
-    <t>EB-SO-Service_Parts_&amp;_Logistics</t>
-  </si>
-  <si>
-    <t>EB-SO-Service_Planning</t>
-  </si>
-  <si>
-    <t>EB-UD-Communication_&amp;_Event,EB-UD-PR</t>
-  </si>
-  <si>
-    <t>EB-UD-Communication_&amp;_Event</t>
-  </si>
-  <si>
-    <t>EB-UO-2B_Business_Product</t>
-  </si>
-  <si>
-    <t>EB-UO-Business_Intelligence</t>
-  </si>
-  <si>
-    <t>EB-UO-Partner_Strategy</t>
-  </si>
-  <si>
-    <t>EB-UO-Subscription_Product_&amp;_management,EB-UO-Commercial_Product</t>
-  </si>
-  <si>
-    <t>COE_Digital</t>
-  </si>
-  <si>
-    <t>COE_Finance</t>
-  </si>
-  <si>
-    <t>COE_HR</t>
-  </si>
-  <si>
-    <t>COE_Legal</t>
-  </si>
-  <si>
-    <t>COE_NIO_Life</t>
-  </si>
-  <si>
-    <t>COE_Product_Design</t>
-  </si>
-  <si>
-    <t>COE_Power_Operation</t>
-  </si>
-  <si>
-    <t>COE_Purchase</t>
-  </si>
-  <si>
-    <t>EB_Business_Development</t>
-  </si>
-  <si>
-    <t>EB_Enabling</t>
-  </si>
-  <si>
-    <t>EB_Network_Development</t>
-  </si>
-  <si>
-    <t>EB_Service_Operation</t>
-  </si>
-  <si>
-    <t>EB_User_Development</t>
-  </si>
-  <si>
-    <t>EB_User_Operation</t>
+    <t>#REF!</t>
   </si>
   <si>
     <t>Marius Hayler,Mattias Lundgren,Ruben Keuter,Ralph Kranz</t>
@@ -1358,20 +1226,14 @@
       <c r="G2" t="s">
         <v>211</v>
       </c>
-      <c r="H2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>265</v>
-      </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1393,20 +1255,14 @@
       <c r="G3" t="s">
         <v>212</v>
       </c>
-      <c r="H3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I3" t="s">
-        <v>266</v>
-      </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="K3" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L3" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1428,20 +1284,14 @@
       <c r="G4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" t="s">
-        <v>267</v>
-      </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="K4" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L4" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1463,20 +1313,14 @@
       <c r="G5" t="s">
         <v>213</v>
       </c>
-      <c r="H5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" t="s">
-        <v>268</v>
-      </c>
       <c r="J5" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="K5" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L5" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1498,20 +1342,14 @@
       <c r="G6" t="s">
         <v>214</v>
       </c>
-      <c r="H6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I6" t="s">
-        <v>269</v>
-      </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1533,20 +1371,14 @@
       <c r="G7" t="s">
         <v>215</v>
       </c>
-      <c r="H7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" t="s">
-        <v>270</v>
-      </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1568,20 +1400,14 @@
       <c r="G8" t="s">
         <v>216</v>
       </c>
-      <c r="H8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>271</v>
-      </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="K8" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L8" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1603,20 +1429,14 @@
       <c r="G9" t="s">
         <v>217</v>
       </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>272</v>
-      </c>
       <c r="J9" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L9" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1638,20 +1458,14 @@
       <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I10" t="s">
-        <v>273</v>
-      </c>
       <c r="J10" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="K10" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L10" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1676,20 +1490,14 @@
       <c r="G11" t="s">
         <v>218</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" t="s">
         <v>259</v>
       </c>
-      <c r="I11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J11" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" t="s">
-        <v>303</v>
-      </c>
       <c r="L11" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1714,20 +1522,14 @@
       <c r="G12" t="s">
         <v>219</v>
       </c>
-      <c r="H12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" t="s">
-        <v>275</v>
-      </c>
       <c r="J12" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K12" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L12" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1752,20 +1554,14 @@
       <c r="G13" t="s">
         <v>220</v>
       </c>
-      <c r="H13" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" t="s">
-        <v>276</v>
-      </c>
       <c r="J13" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L13" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1790,20 +1586,14 @@
       <c r="G14" t="s">
         <v>221</v>
       </c>
-      <c r="H14" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" t="s">
-        <v>277</v>
-      </c>
       <c r="J14" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K14" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L14" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1828,20 +1618,14 @@
       <c r="G15" t="s">
         <v>222</v>
       </c>
-      <c r="H15" t="s">
-        <v>261</v>
-      </c>
-      <c r="I15" t="s">
-        <v>278</v>
-      </c>
       <c r="J15" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L15" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1866,20 +1650,14 @@
       <c r="G16" t="s">
         <v>132</v>
       </c>
-      <c r="H16" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" t="s">
-        <v>279</v>
-      </c>
       <c r="J16" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L16" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1904,20 +1682,14 @@
       <c r="G17" t="s">
         <v>223</v>
       </c>
-      <c r="H17" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" t="s">
-        <v>280</v>
-      </c>
       <c r="J17" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="K17" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1942,20 +1714,14 @@
       <c r="G18" t="s">
         <v>134</v>
       </c>
-      <c r="H18" t="s">
-        <v>262</v>
-      </c>
-      <c r="I18" t="s">
-        <v>280</v>
-      </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="K18" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L18" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1980,20 +1746,14 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
-      <c r="H19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I19" t="s">
-        <v>281</v>
-      </c>
       <c r="J19" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="K19" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L19" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2018,20 +1778,14 @@
       <c r="G20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" t="s">
-        <v>282</v>
-      </c>
       <c r="J20" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="K20" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L20" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2056,20 +1810,14 @@
       <c r="G21" t="s">
         <v>138</v>
       </c>
-      <c r="H21" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" t="s">
-        <v>283</v>
-      </c>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2094,20 +1842,14 @@
       <c r="G22" t="s">
         <v>138</v>
       </c>
-      <c r="H22" t="s">
-        <v>263</v>
-      </c>
-      <c r="I22" t="s">
-        <v>284</v>
-      </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2129,20 +1871,14 @@
       <c r="G23" t="s">
         <v>225</v>
       </c>
-      <c r="H23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" t="s">
-        <v>285</v>
-      </c>
       <c r="J23" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2167,20 +1903,14 @@
       <c r="G24" t="s">
         <v>226</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
+        <v>258</v>
+      </c>
+      <c r="K24" t="s">
         <v>259</v>
       </c>
-      <c r="I24" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" t="s">
-        <v>303</v>
-      </c>
       <c r="L24" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2205,17 +1935,14 @@
       <c r="G25" t="s">
         <v>227</v>
       </c>
-      <c r="H25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" t="s">
-        <v>287</v>
+      <c r="J25" t="s">
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2240,20 +1967,14 @@
       <c r="G26" t="s">
         <v>228</v>
       </c>
-      <c r="H26" t="s">
-        <v>259</v>
-      </c>
-      <c r="I26" t="s">
-        <v>288</v>
-      </c>
       <c r="J26" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2278,11 +1999,11 @@
       <c r="G27" t="s">
         <v>219</v>
       </c>
-      <c r="H27" t="s">
-        <v>259</v>
+      <c r="J27" t="s">
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2301,11 +2022,11 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="H28" t="s">
-        <v>78</v>
+      <c r="J28" t="s">
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2327,11 +2048,11 @@
       <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="H29" t="s">
-        <v>78</v>
+      <c r="J29" t="s">
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2350,11 +2071,11 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="H30" t="s">
-        <v>78</v>
+      <c r="J30" t="s">
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2379,11 +2100,11 @@
       <c r="G31" t="s">
         <v>229</v>
       </c>
-      <c r="H31" t="s">
-        <v>260</v>
+      <c r="J31" t="s">
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2408,11 +2129,11 @@
       <c r="G32" t="s">
         <v>230</v>
       </c>
-      <c r="H32" t="s">
-        <v>261</v>
+      <c r="J32" t="s">
+        <v>258</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2437,11 +2158,11 @@
       <c r="G33" t="s">
         <v>231</v>
       </c>
-      <c r="H33" t="s">
-        <v>259</v>
+      <c r="J33" t="s">
+        <v>258</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2463,11 +2184,11 @@
       <c r="F34" t="s">
         <v>147</v>
       </c>
-      <c r="H34" t="s">
-        <v>78</v>
+      <c r="J34" t="s">
+        <v>258</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2492,11 +2213,11 @@
       <c r="G35" t="s">
         <v>232</v>
       </c>
-      <c r="H35" t="s">
-        <v>261</v>
+      <c r="J35" t="s">
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2521,11 +2242,11 @@
       <c r="G36" t="s">
         <v>138</v>
       </c>
-      <c r="H36" t="s">
-        <v>262</v>
+      <c r="J36" t="s">
+        <v>258</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2550,11 +2271,11 @@
       <c r="G37" t="s">
         <v>138</v>
       </c>
-      <c r="H37" t="s">
-        <v>263</v>
+      <c r="J37" t="s">
+        <v>258</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2576,11 +2297,11 @@
       <c r="F38" t="s">
         <v>151</v>
       </c>
-      <c r="H38" t="s">
-        <v>259</v>
+      <c r="J38" t="s">
+        <v>258</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2605,8 +2326,11 @@
       <c r="G39" t="s">
         <v>233</v>
       </c>
+      <c r="J39" t="s">
+        <v>258</v>
+      </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2631,8 +2355,11 @@
       <c r="G40" t="s">
         <v>234</v>
       </c>
+      <c r="J40" t="s">
+        <v>258</v>
+      </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2657,8 +2384,11 @@
       <c r="G41" t="s">
         <v>235</v>
       </c>
+      <c r="J41" t="s">
+        <v>258</v>
+      </c>
       <c r="L41" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2683,8 +2413,11 @@
       <c r="G42" t="s">
         <v>236</v>
       </c>
+      <c r="J42" t="s">
+        <v>258</v>
+      </c>
       <c r="L42" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2706,8 +2439,11 @@
       <c r="G43" t="s">
         <v>233</v>
       </c>
+      <c r="J43" t="s">
+        <v>258</v>
+      </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2726,11 +2462,11 @@
       <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="H44" t="s">
-        <v>78</v>
+      <c r="J44" t="s">
+        <v>258</v>
       </c>
       <c r="L44" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2749,11 +2485,11 @@
       <c r="E45" t="s">
         <v>52</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s">
         <v>264</v>
-      </c>
-      <c r="L45" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2778,11 +2514,11 @@
       <c r="G46" t="s">
         <v>237</v>
       </c>
-      <c r="H46" t="s">
-        <v>259</v>
+      <c r="J46" t="s">
+        <v>258</v>
       </c>
       <c r="L46" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2807,11 +2543,11 @@
       <c r="G47" t="s">
         <v>238</v>
       </c>
-      <c r="H47" t="s">
-        <v>263</v>
+      <c r="J47" t="s">
+        <v>258</v>
       </c>
       <c r="L47" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2833,11 +2569,11 @@
       <c r="F48" t="s">
         <v>158</v>
       </c>
-      <c r="H48" t="s">
-        <v>259</v>
+      <c r="J48" t="s">
+        <v>258</v>
       </c>
       <c r="L48" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2862,11 +2598,11 @@
       <c r="G49" t="s">
         <v>239</v>
       </c>
-      <c r="H49" t="s">
-        <v>262</v>
+      <c r="J49" t="s">
+        <v>258</v>
       </c>
       <c r="L49" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2885,11 +2621,11 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
-        <v>78</v>
+      <c r="J50" t="s">
+        <v>258</v>
       </c>
       <c r="L50" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2914,11 +2650,11 @@
       <c r="G51" t="s">
         <v>240</v>
       </c>
-      <c r="H51" t="s">
-        <v>262</v>
+      <c r="J51" t="s">
+        <v>258</v>
       </c>
       <c r="L51" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2943,11 +2679,11 @@
       <c r="G52" t="s">
         <v>241</v>
       </c>
-      <c r="H52" t="s">
-        <v>259</v>
+      <c r="J52" t="s">
+        <v>258</v>
       </c>
       <c r="L52" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2972,11 +2708,11 @@
       <c r="G53" t="s">
         <v>242</v>
       </c>
-      <c r="H53" t="s">
-        <v>263</v>
+      <c r="J53" t="s">
+        <v>258</v>
       </c>
       <c r="L53" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2998,11 +2734,11 @@
       <c r="F54" t="s">
         <v>163</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" t="s">
         <v>264</v>
-      </c>
-      <c r="L54" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3021,11 +2757,11 @@
       <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="H55" t="s">
-        <v>78</v>
+      <c r="J55" t="s">
+        <v>258</v>
       </c>
       <c r="L55" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3044,11 +2780,11 @@
       <c r="E56" t="s">
         <v>50</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
+        <v>258</v>
+      </c>
+      <c r="L56" t="s">
         <v>264</v>
-      </c>
-      <c r="L56" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3067,11 +2803,11 @@
       <c r="E57" t="s">
         <v>50</v>
       </c>
-      <c r="H57" t="s">
-        <v>259</v>
+      <c r="J57" t="s">
+        <v>258</v>
       </c>
       <c r="L57" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3096,11 +2832,11 @@
       <c r="G58" t="s">
         <v>243</v>
       </c>
-      <c r="H58" t="s">
-        <v>259</v>
+      <c r="J58" t="s">
+        <v>258</v>
       </c>
       <c r="L58" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3125,11 +2861,11 @@
       <c r="G59" t="s">
         <v>244</v>
       </c>
-      <c r="H59" t="s">
-        <v>263</v>
+      <c r="J59" t="s">
+        <v>258</v>
       </c>
       <c r="L59" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3154,11 +2890,11 @@
       <c r="G60" t="s">
         <v>245</v>
       </c>
-      <c r="H60" t="s">
-        <v>262</v>
+      <c r="J60" t="s">
+        <v>258</v>
       </c>
       <c r="L60" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3183,11 +2919,11 @@
       <c r="G61" t="s">
         <v>246</v>
       </c>
-      <c r="H61" t="s">
-        <v>262</v>
+      <c r="J61" t="s">
+        <v>258</v>
       </c>
       <c r="L61" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3212,11 +2948,11 @@
       <c r="G62" t="s">
         <v>247</v>
       </c>
-      <c r="H62" t="s">
-        <v>259</v>
+      <c r="J62" t="s">
+        <v>258</v>
       </c>
       <c r="L62" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3235,11 +2971,11 @@
       <c r="E63" t="s">
         <v>49</v>
       </c>
-      <c r="H63" t="s">
-        <v>78</v>
+      <c r="J63" t="s">
+        <v>258</v>
       </c>
       <c r="L63" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3264,11 +3000,11 @@
       <c r="G64" t="s">
         <v>248</v>
       </c>
-      <c r="H64" t="s">
-        <v>263</v>
+      <c r="J64" t="s">
+        <v>258</v>
       </c>
       <c r="L64" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3293,11 +3029,11 @@
       <c r="G65" t="s">
         <v>249</v>
       </c>
-      <c r="H65" t="s">
-        <v>259</v>
+      <c r="J65" t="s">
+        <v>258</v>
       </c>
       <c r="L65" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3319,11 +3055,11 @@
       <c r="F66" t="s">
         <v>171</v>
       </c>
-      <c r="H66" t="s">
-        <v>259</v>
+      <c r="J66" t="s">
+        <v>258</v>
       </c>
       <c r="L66" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3348,11 +3084,11 @@
       <c r="G67" t="s">
         <v>250</v>
       </c>
-      <c r="H67" t="s">
-        <v>262</v>
+      <c r="J67" t="s">
+        <v>258</v>
       </c>
       <c r="L67" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3374,8 +3110,11 @@
       <c r="G68" t="s">
         <v>138</v>
       </c>
+      <c r="J68" t="s">
+        <v>258</v>
+      </c>
       <c r="L68" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3397,11 +3136,11 @@
       <c r="G69" t="s">
         <v>173</v>
       </c>
-      <c r="H69" t="s">
-        <v>78</v>
+      <c r="J69" t="s">
+        <v>258</v>
       </c>
       <c r="L69" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3426,8 +3165,11 @@
       <c r="G70" t="s">
         <v>251</v>
       </c>
+      <c r="J70" t="s">
+        <v>258</v>
+      </c>
       <c r="L70" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3452,8 +3194,11 @@
       <c r="G71" t="s">
         <v>252</v>
       </c>
+      <c r="J71" t="s">
+        <v>258</v>
+      </c>
       <c r="L71" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3478,8 +3223,11 @@
       <c r="G72" t="s">
         <v>253</v>
       </c>
+      <c r="J72" t="s">
+        <v>258</v>
+      </c>
       <c r="L72" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3504,8 +3252,11 @@
       <c r="G73" t="s">
         <v>254</v>
       </c>
+      <c r="J73" t="s">
+        <v>258</v>
+      </c>
       <c r="L73" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3530,8 +3281,11 @@
       <c r="G74" t="s">
         <v>255</v>
       </c>
+      <c r="J74" t="s">
+        <v>258</v>
+      </c>
       <c r="L74" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3556,8 +3310,11 @@
       <c r="G75" t="s">
         <v>256</v>
       </c>
+      <c r="J75" t="s">
+        <v>258</v>
+      </c>
       <c r="L75" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3582,8 +3339,11 @@
       <c r="G76" t="s">
         <v>180</v>
       </c>
+      <c r="J76" t="s">
+        <v>258</v>
+      </c>
       <c r="L76" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3608,8 +3368,11 @@
       <c r="G77" t="s">
         <v>257</v>
       </c>
+      <c r="J77" t="s">
+        <v>258</v>
+      </c>
       <c r="L77" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3625,8 +3388,11 @@
       <c r="F78" t="s">
         <v>182</v>
       </c>
+      <c r="J78" t="s">
+        <v>258</v>
+      </c>
       <c r="L78" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3645,8 +3411,11 @@
       <c r="F79" t="s">
         <v>183</v>
       </c>
+      <c r="J79" t="s">
+        <v>258</v>
+      </c>
       <c r="L79" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3662,8 +3431,11 @@
       <c r="F80" t="s">
         <v>184</v>
       </c>
+      <c r="J80" t="s">
+        <v>258</v>
+      </c>
       <c r="L80" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3682,8 +3454,11 @@
       <c r="F81" t="s">
         <v>184</v>
       </c>
+      <c r="J81" t="s">
+        <v>258</v>
+      </c>
       <c r="L81" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3699,8 +3474,11 @@
       <c r="F82" t="s">
         <v>185</v>
       </c>
+      <c r="J82" t="s">
+        <v>258</v>
+      </c>
       <c r="L82" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3716,8 +3494,11 @@
       <c r="F83" t="s">
         <v>186</v>
       </c>
+      <c r="J83" t="s">
+        <v>258</v>
+      </c>
       <c r="L83" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3733,8 +3514,11 @@
       <c r="F84" t="s">
         <v>187</v>
       </c>
+      <c r="J84" t="s">
+        <v>258</v>
+      </c>
       <c r="L84" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3750,8 +3534,11 @@
       <c r="F85" t="s">
         <v>188</v>
       </c>
+      <c r="J85" t="s">
+        <v>258</v>
+      </c>
       <c r="L85" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3770,8 +3557,11 @@
       <c r="F86" t="s">
         <v>189</v>
       </c>
+      <c r="J86" t="s">
+        <v>258</v>
+      </c>
       <c r="L86" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3790,8 +3580,11 @@
       <c r="F87" t="s">
         <v>190</v>
       </c>
+      <c r="J87" t="s">
+        <v>258</v>
+      </c>
       <c r="L87" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3810,8 +3603,11 @@
       <c r="F88" t="s">
         <v>191</v>
       </c>
+      <c r="J88" t="s">
+        <v>258</v>
+      </c>
       <c r="L88" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3830,8 +3626,11 @@
       <c r="F89" t="s">
         <v>192</v>
       </c>
+      <c r="J89" t="s">
+        <v>258</v>
+      </c>
       <c r="L89" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3850,8 +3649,11 @@
       <c r="F90" t="s">
         <v>193</v>
       </c>
+      <c r="J90" t="s">
+        <v>258</v>
+      </c>
       <c r="L90" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3870,8 +3672,11 @@
       <c r="F91" t="s">
         <v>194</v>
       </c>
+      <c r="J91" t="s">
+        <v>258</v>
+      </c>
       <c r="L91" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3890,8 +3695,11 @@
       <c r="F92" t="s">
         <v>195</v>
       </c>
+      <c r="J92" t="s">
+        <v>258</v>
+      </c>
       <c r="L92" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3910,8 +3718,11 @@
       <c r="F93" t="s">
         <v>196</v>
       </c>
+      <c r="J93" t="s">
+        <v>258</v>
+      </c>
       <c r="L93" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3930,8 +3741,11 @@
       <c r="F94" t="s">
         <v>197</v>
       </c>
+      <c r="J94" t="s">
+        <v>258</v>
+      </c>
       <c r="L94" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3950,8 +3764,11 @@
       <c r="F95" t="s">
         <v>198</v>
       </c>
+      <c r="J95" t="s">
+        <v>258</v>
+      </c>
       <c r="L95" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3970,8 +3787,11 @@
       <c r="F96" t="s">
         <v>199</v>
       </c>
+      <c r="J96" t="s">
+        <v>258</v>
+      </c>
       <c r="L96" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3990,8 +3810,11 @@
       <c r="F97" t="s">
         <v>200</v>
       </c>
+      <c r="J97" t="s">
+        <v>258</v>
+      </c>
       <c r="L97" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4010,8 +3833,11 @@
       <c r="F98" t="s">
         <v>201</v>
       </c>
+      <c r="J98" t="s">
+        <v>258</v>
+      </c>
       <c r="L98" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4030,8 +3856,11 @@
       <c r="F99" t="s">
         <v>202</v>
       </c>
+      <c r="J99" t="s">
+        <v>258</v>
+      </c>
       <c r="L99" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4050,8 +3879,11 @@
       <c r="F100" t="s">
         <v>203</v>
       </c>
+      <c r="J100" t="s">
+        <v>258</v>
+      </c>
       <c r="L100" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4070,8 +3902,11 @@
       <c r="F101" t="s">
         <v>204</v>
       </c>
+      <c r="J101" t="s">
+        <v>258</v>
+      </c>
       <c r="L101" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4090,8 +3925,11 @@
       <c r="G102" t="s">
         <v>228</v>
       </c>
+      <c r="J102" t="s">
+        <v>258</v>
+      </c>
       <c r="L102" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4110,8 +3948,11 @@
       <c r="G103" t="s">
         <v>228</v>
       </c>
+      <c r="J103" t="s">
+        <v>258</v>
+      </c>
       <c r="L103" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4130,8 +3971,11 @@
       <c r="G104" t="s">
         <v>228</v>
       </c>
+      <c r="J104" t="s">
+        <v>258</v>
+      </c>
       <c r="L104" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4150,8 +3994,11 @@
       <c r="G105" t="s">
         <v>228</v>
       </c>
+      <c r="J105" t="s">
+        <v>258</v>
+      </c>
       <c r="L105" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4170,8 +4017,11 @@
       <c r="G106" t="s">
         <v>228</v>
       </c>
+      <c r="J106" t="s">
+        <v>258</v>
+      </c>
       <c r="L106" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4186,6 +4036,9 @@
       </c>
       <c r="F107" t="s">
         <v>210</v>
+      </c>
+      <c r="J107" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="309">
   <si>
     <t>Department</t>
   </si>
@@ -790,7 +790,139 @@
     <t>gerald_krainer</t>
   </si>
   <si>
-    <t>#REF!</t>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Sales_Operation</t>
+  </si>
+  <si>
+    <t>Market_Entry_and_Operation</t>
+  </si>
+  <si>
+    <t>Network_Infrastructure</t>
+  </si>
+  <si>
+    <t>Service_Operation</t>
+  </si>
+  <si>
+    <t>User_Development</t>
+  </si>
+  <si>
+    <t>User_Relation_and_SCR</t>
+  </si>
+  <si>
+    <t>COE-Digital-Digital_Product_Launch,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_System_Operation</t>
+  </si>
+  <si>
+    <t>COE-Finance-Controling,COE-Finance-Finance_Planning,COE-Finance-Finance_Admin,COE-Finance-Accounting,COE-Finance-Tax</t>
+  </si>
+  <si>
+    <t>COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-HR-EHS,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery</t>
+  </si>
+  <si>
+    <t>COE-Legal-EU_Legal</t>
+  </si>
+  <si>
+    <t>COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch</t>
+  </si>
+  <si>
+    <t>COE-PD-Product_Experience,COE-PD-Vehicle_Quality</t>
+  </si>
+  <si>
+    <t>COE-PD-Product_Planning</t>
+  </si>
+  <si>
+    <t>COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Power-LTO</t>
+  </si>
+  <si>
+    <t>COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation</t>
+  </si>
+  <si>
+    <t>EB-BD-Retail_Financing,EB-BD-LeaseCo_Development</t>
+  </si>
+  <si>
+    <t>EB-Enabling-Market_Planning</t>
+  </si>
+  <si>
+    <t>EB-Enabling-Project_Management</t>
+  </si>
+  <si>
+    <t>EB-ND-Construction_Management</t>
+  </si>
+  <si>
+    <t>EB-ND-Design_Management</t>
+  </si>
+  <si>
+    <t>EB-ND-NIO_House_Operation</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Operation</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Parts_&amp;_Logistics</t>
+  </si>
+  <si>
+    <t>EB-SO-Service_Planning</t>
+  </si>
+  <si>
+    <t>EB-UD-Communication_&amp;_Event,EB-UD-PR</t>
+  </si>
+  <si>
+    <t>EB-UD-Communication_&amp;_Event</t>
+  </si>
+  <si>
+    <t>EB-UO-2B_Business_Product</t>
+  </si>
+  <si>
+    <t>EB-UO-Business_Intelligence</t>
+  </si>
+  <si>
+    <t>EB-UO-Partner_Strategy</t>
+  </si>
+  <si>
+    <t>EB-UO-Subscription_Product_&amp;_management,EB-UO-Commercial_Product</t>
+  </si>
+  <si>
+    <t>COE_Digital</t>
+  </si>
+  <si>
+    <t>COE_Finance</t>
+  </si>
+  <si>
+    <t>COE_HR</t>
+  </si>
+  <si>
+    <t>COE_Legal</t>
+  </si>
+  <si>
+    <t>COE_NIO_Life</t>
+  </si>
+  <si>
+    <t>COE_Product_Design</t>
+  </si>
+  <si>
+    <t>COE_Power_Operation</t>
+  </si>
+  <si>
+    <t>COE_Purchase</t>
+  </si>
+  <si>
+    <t>EB_Business_Development</t>
+  </si>
+  <si>
+    <t>EB_Enabling</t>
+  </si>
+  <si>
+    <t>EB_Network_Development</t>
+  </si>
+  <si>
+    <t>EB_Service_Operation</t>
+  </si>
+  <si>
+    <t>EB_User_Development</t>
+  </si>
+  <si>
+    <t>EB_User_Operation</t>
   </si>
   <si>
     <t>Marius Hayler,Mattias Lundgren,Ruben Keuter,Ralph Kranz</t>
@@ -1226,14 +1358,20 @@
       <c r="G2" t="s">
         <v>211</v>
       </c>
+      <c r="H2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
+        <v>265</v>
+      </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1255,14 +1393,20 @@
       <c r="G3" t="s">
         <v>212</v>
       </c>
+      <c r="H3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
       <c r="J3" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="K3" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1284,14 +1428,20 @@
       <c r="G4" t="s">
         <v>120</v>
       </c>
+      <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" t="s">
+        <v>267</v>
+      </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L4" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1313,14 +1463,20 @@
       <c r="G5" t="s">
         <v>213</v>
       </c>
+      <c r="H5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" t="s">
+        <v>268</v>
+      </c>
       <c r="J5" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L5" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1342,14 +1498,20 @@
       <c r="G6" t="s">
         <v>214</v>
       </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" t="s">
+        <v>269</v>
+      </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K6" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1371,14 +1533,20 @@
       <c r="G7" t="s">
         <v>215</v>
       </c>
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
+        <v>270</v>
+      </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="K7" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1400,14 +1568,20 @@
       <c r="G8" t="s">
         <v>216</v>
       </c>
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
+        <v>271</v>
+      </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="K8" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L8" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1429,14 +1603,20 @@
       <c r="G9" t="s">
         <v>217</v>
       </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>272</v>
+      </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1458,14 +1638,20 @@
       <c r="G10" t="s">
         <v>126</v>
       </c>
+      <c r="H10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" t="s">
+        <v>273</v>
+      </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="K10" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L10" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1490,14 +1676,20 @@
       <c r="G11" t="s">
         <v>218</v>
       </c>
+      <c r="H11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>274</v>
+      </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L11" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1522,14 +1714,20 @@
       <c r="G12" t="s">
         <v>219</v>
       </c>
+      <c r="H12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" t="s">
+        <v>275</v>
+      </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="K12" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L12" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1554,14 +1752,20 @@
       <c r="G13" t="s">
         <v>220</v>
       </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>276</v>
+      </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="K13" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L13" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1586,14 +1790,20 @@
       <c r="G14" t="s">
         <v>221</v>
       </c>
+      <c r="H14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" t="s">
+        <v>277</v>
+      </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L14" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1618,14 +1828,20 @@
       <c r="G15" t="s">
         <v>222</v>
       </c>
+      <c r="H15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" t="s">
+        <v>278</v>
+      </c>
       <c r="J15" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K15" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L15" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1650,14 +1866,20 @@
       <c r="G16" t="s">
         <v>132</v>
       </c>
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>279</v>
+      </c>
       <c r="J16" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L16" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1682,14 +1904,20 @@
       <c r="G17" t="s">
         <v>223</v>
       </c>
+      <c r="H17" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
       <c r="J17" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L17" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1714,14 +1942,20 @@
       <c r="G18" t="s">
         <v>134</v>
       </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I18" t="s">
+        <v>280</v>
+      </c>
       <c r="J18" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L18" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1746,14 +1980,20 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
+      <c r="H19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
       <c r="J19" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L19" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1778,14 +2018,20 @@
       <c r="G20" t="s">
         <v>134</v>
       </c>
+      <c r="H20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" t="s">
+        <v>282</v>
+      </c>
       <c r="J20" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="L20" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1810,14 +2056,20 @@
       <c r="G21" t="s">
         <v>138</v>
       </c>
+      <c r="H21" t="s">
+        <v>263</v>
+      </c>
+      <c r="I21" t="s">
+        <v>283</v>
+      </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="L21" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1842,14 +2094,20 @@
       <c r="G22" t="s">
         <v>138</v>
       </c>
+      <c r="H22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" t="s">
+        <v>284</v>
+      </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1871,14 +2129,20 @@
       <c r="G23" t="s">
         <v>225</v>
       </c>
+      <c r="H23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" t="s">
+        <v>285</v>
+      </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="L23" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1903,14 +2167,20 @@
       <c r="G24" t="s">
         <v>226</v>
       </c>
+      <c r="H24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" t="s">
+        <v>286</v>
+      </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1935,14 +2205,17 @@
       <c r="G25" t="s">
         <v>227</v>
       </c>
-      <c r="J25" t="s">
-        <v>258</v>
+      <c r="H25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1967,14 +2240,20 @@
       <c r="G26" t="s">
         <v>228</v>
       </c>
+      <c r="H26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" t="s">
+        <v>288</v>
+      </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="L26" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1999,11 +2278,11 @@
       <c r="G27" t="s">
         <v>219</v>
       </c>
-      <c r="J27" t="s">
-        <v>258</v>
+      <c r="H27" t="s">
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2022,11 +2301,11 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="J28" t="s">
-        <v>258</v>
+      <c r="H28" t="s">
+        <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2048,11 +2327,11 @@
       <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="J29" t="s">
-        <v>258</v>
+      <c r="H29" t="s">
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2071,11 +2350,11 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="J30" t="s">
-        <v>258</v>
+      <c r="H30" t="s">
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2100,11 +2379,11 @@
       <c r="G31" t="s">
         <v>229</v>
       </c>
-      <c r="J31" t="s">
-        <v>258</v>
+      <c r="H31" t="s">
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2129,11 +2408,11 @@
       <c r="G32" t="s">
         <v>230</v>
       </c>
-      <c r="J32" t="s">
-        <v>258</v>
+      <c r="H32" t="s">
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2158,11 +2437,11 @@
       <c r="G33" t="s">
         <v>231</v>
       </c>
-      <c r="J33" t="s">
-        <v>258</v>
+      <c r="H33" t="s">
+        <v>259</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2184,11 +2463,11 @@
       <c r="F34" t="s">
         <v>147</v>
       </c>
-      <c r="J34" t="s">
-        <v>258</v>
+      <c r="H34" t="s">
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2213,11 +2492,11 @@
       <c r="G35" t="s">
         <v>232</v>
       </c>
-      <c r="J35" t="s">
-        <v>258</v>
+      <c r="H35" t="s">
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2242,11 +2521,11 @@
       <c r="G36" t="s">
         <v>138</v>
       </c>
-      <c r="J36" t="s">
-        <v>258</v>
+      <c r="H36" t="s">
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2271,11 +2550,11 @@
       <c r="G37" t="s">
         <v>138</v>
       </c>
-      <c r="J37" t="s">
-        <v>258</v>
+      <c r="H37" t="s">
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2297,11 +2576,11 @@
       <c r="F38" t="s">
         <v>151</v>
       </c>
-      <c r="J38" t="s">
-        <v>258</v>
+      <c r="H38" t="s">
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2326,11 +2605,8 @@
       <c r="G39" t="s">
         <v>233</v>
       </c>
-      <c r="J39" t="s">
-        <v>258</v>
-      </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2355,11 +2631,8 @@
       <c r="G40" t="s">
         <v>234</v>
       </c>
-      <c r="J40" t="s">
-        <v>258</v>
-      </c>
       <c r="L40" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2384,11 +2657,8 @@
       <c r="G41" t="s">
         <v>235</v>
       </c>
-      <c r="J41" t="s">
-        <v>258</v>
-      </c>
       <c r="L41" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2413,11 +2683,8 @@
       <c r="G42" t="s">
         <v>236</v>
       </c>
-      <c r="J42" t="s">
-        <v>258</v>
-      </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2439,11 +2706,8 @@
       <c r="G43" t="s">
         <v>233</v>
       </c>
-      <c r="J43" t="s">
-        <v>258</v>
-      </c>
       <c r="L43" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2462,11 +2726,11 @@
       <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="J44" t="s">
-        <v>258</v>
+      <c r="H44" t="s">
+        <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2485,11 +2749,11 @@
       <c r="E45" t="s">
         <v>52</v>
       </c>
-      <c r="J45" t="s">
-        <v>258</v>
+      <c r="H45" t="s">
+        <v>264</v>
       </c>
       <c r="L45" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2514,11 +2778,11 @@
       <c r="G46" t="s">
         <v>237</v>
       </c>
-      <c r="J46" t="s">
-        <v>258</v>
+      <c r="H46" t="s">
+        <v>259</v>
       </c>
       <c r="L46" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2543,11 +2807,11 @@
       <c r="G47" t="s">
         <v>238</v>
       </c>
-      <c r="J47" t="s">
-        <v>258</v>
+      <c r="H47" t="s">
+        <v>263</v>
       </c>
       <c r="L47" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2569,11 +2833,11 @@
       <c r="F48" t="s">
         <v>158</v>
       </c>
-      <c r="J48" t="s">
-        <v>258</v>
+      <c r="H48" t="s">
+        <v>259</v>
       </c>
       <c r="L48" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2598,11 +2862,11 @@
       <c r="G49" t="s">
         <v>239</v>
       </c>
-      <c r="J49" t="s">
-        <v>258</v>
+      <c r="H49" t="s">
+        <v>262</v>
       </c>
       <c r="L49" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2621,11 +2885,11 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-      <c r="J50" t="s">
-        <v>258</v>
+      <c r="H50" t="s">
+        <v>78</v>
       </c>
       <c r="L50" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2650,11 +2914,11 @@
       <c r="G51" t="s">
         <v>240</v>
       </c>
-      <c r="J51" t="s">
-        <v>258</v>
+      <c r="H51" t="s">
+        <v>262</v>
       </c>
       <c r="L51" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2679,11 +2943,11 @@
       <c r="G52" t="s">
         <v>241</v>
       </c>
-      <c r="J52" t="s">
-        <v>258</v>
+      <c r="H52" t="s">
+        <v>259</v>
       </c>
       <c r="L52" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2708,11 +2972,11 @@
       <c r="G53" t="s">
         <v>242</v>
       </c>
-      <c r="J53" t="s">
-        <v>258</v>
+      <c r="H53" t="s">
+        <v>263</v>
       </c>
       <c r="L53" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2734,11 +2998,11 @@
       <c r="F54" t="s">
         <v>163</v>
       </c>
-      <c r="J54" t="s">
-        <v>258</v>
+      <c r="H54" t="s">
+        <v>264</v>
       </c>
       <c r="L54" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2757,11 +3021,11 @@
       <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="J55" t="s">
-        <v>258</v>
+      <c r="H55" t="s">
+        <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2780,11 +3044,11 @@
       <c r="E56" t="s">
         <v>50</v>
       </c>
-      <c r="J56" t="s">
-        <v>258</v>
+      <c r="H56" t="s">
+        <v>264</v>
       </c>
       <c r="L56" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2803,11 +3067,11 @@
       <c r="E57" t="s">
         <v>50</v>
       </c>
-      <c r="J57" t="s">
-        <v>258</v>
+      <c r="H57" t="s">
+        <v>259</v>
       </c>
       <c r="L57" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2832,11 +3096,11 @@
       <c r="G58" t="s">
         <v>243</v>
       </c>
-      <c r="J58" t="s">
-        <v>258</v>
+      <c r="H58" t="s">
+        <v>259</v>
       </c>
       <c r="L58" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2861,11 +3125,11 @@
       <c r="G59" t="s">
         <v>244</v>
       </c>
-      <c r="J59" t="s">
-        <v>258</v>
+      <c r="H59" t="s">
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2890,11 +3154,11 @@
       <c r="G60" t="s">
         <v>245</v>
       </c>
-      <c r="J60" t="s">
-        <v>258</v>
+      <c r="H60" t="s">
+        <v>262</v>
       </c>
       <c r="L60" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2919,11 +3183,11 @@
       <c r="G61" t="s">
         <v>246</v>
       </c>
-      <c r="J61" t="s">
-        <v>258</v>
+      <c r="H61" t="s">
+        <v>262</v>
       </c>
       <c r="L61" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2948,11 +3212,11 @@
       <c r="G62" t="s">
         <v>247</v>
       </c>
-      <c r="J62" t="s">
-        <v>258</v>
+      <c r="H62" t="s">
+        <v>259</v>
       </c>
       <c r="L62" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2971,11 +3235,11 @@
       <c r="E63" t="s">
         <v>49</v>
       </c>
-      <c r="J63" t="s">
-        <v>258</v>
+      <c r="H63" t="s">
+        <v>78</v>
       </c>
       <c r="L63" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3000,11 +3264,11 @@
       <c r="G64" t="s">
         <v>248</v>
       </c>
-      <c r="J64" t="s">
-        <v>258</v>
+      <c r="H64" t="s">
+        <v>263</v>
       </c>
       <c r="L64" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3029,11 +3293,11 @@
       <c r="G65" t="s">
         <v>249</v>
       </c>
-      <c r="J65" t="s">
-        <v>258</v>
+      <c r="H65" t="s">
+        <v>259</v>
       </c>
       <c r="L65" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3055,11 +3319,11 @@
       <c r="F66" t="s">
         <v>171</v>
       </c>
-      <c r="J66" t="s">
-        <v>258</v>
+      <c r="H66" t="s">
+        <v>259</v>
       </c>
       <c r="L66" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3084,11 +3348,11 @@
       <c r="G67" t="s">
         <v>250</v>
       </c>
-      <c r="J67" t="s">
-        <v>258</v>
+      <c r="H67" t="s">
+        <v>262</v>
       </c>
       <c r="L67" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3110,11 +3374,8 @@
       <c r="G68" t="s">
         <v>138</v>
       </c>
-      <c r="J68" t="s">
-        <v>258</v>
-      </c>
       <c r="L68" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3136,11 +3397,11 @@
       <c r="G69" t="s">
         <v>173</v>
       </c>
-      <c r="J69" t="s">
-        <v>258</v>
+      <c r="H69" t="s">
+        <v>78</v>
       </c>
       <c r="L69" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3165,11 +3426,8 @@
       <c r="G70" t="s">
         <v>251</v>
       </c>
-      <c r="J70" t="s">
-        <v>258</v>
-      </c>
       <c r="L70" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3194,11 +3452,8 @@
       <c r="G71" t="s">
         <v>252</v>
       </c>
-      <c r="J71" t="s">
-        <v>258</v>
-      </c>
       <c r="L71" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3223,11 +3478,8 @@
       <c r="G72" t="s">
         <v>253</v>
       </c>
-      <c r="J72" t="s">
-        <v>258</v>
-      </c>
       <c r="L72" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3252,11 +3504,8 @@
       <c r="G73" t="s">
         <v>254</v>
       </c>
-      <c r="J73" t="s">
-        <v>258</v>
-      </c>
       <c r="L73" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3281,11 +3530,8 @@
       <c r="G74" t="s">
         <v>255</v>
       </c>
-      <c r="J74" t="s">
-        <v>258</v>
-      </c>
       <c r="L74" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3310,11 +3556,8 @@
       <c r="G75" t="s">
         <v>256</v>
       </c>
-      <c r="J75" t="s">
-        <v>258</v>
-      </c>
       <c r="L75" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3339,11 +3582,8 @@
       <c r="G76" t="s">
         <v>180</v>
       </c>
-      <c r="J76" t="s">
-        <v>258</v>
-      </c>
       <c r="L76" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3368,11 +3608,8 @@
       <c r="G77" t="s">
         <v>257</v>
       </c>
-      <c r="J77" t="s">
-        <v>258</v>
-      </c>
       <c r="L77" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3388,11 +3625,8 @@
       <c r="F78" t="s">
         <v>182</v>
       </c>
-      <c r="J78" t="s">
-        <v>258</v>
-      </c>
       <c r="L78" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3411,11 +3645,8 @@
       <c r="F79" t="s">
         <v>183</v>
       </c>
-      <c r="J79" t="s">
-        <v>258</v>
-      </c>
       <c r="L79" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3431,11 +3662,8 @@
       <c r="F80" t="s">
         <v>184</v>
       </c>
-      <c r="J80" t="s">
-        <v>258</v>
-      </c>
       <c r="L80" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3454,11 +3682,8 @@
       <c r="F81" t="s">
         <v>184</v>
       </c>
-      <c r="J81" t="s">
-        <v>258</v>
-      </c>
       <c r="L81" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3474,11 +3699,8 @@
       <c r="F82" t="s">
         <v>185</v>
       </c>
-      <c r="J82" t="s">
-        <v>258</v>
-      </c>
       <c r="L82" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3494,11 +3716,8 @@
       <c r="F83" t="s">
         <v>186</v>
       </c>
-      <c r="J83" t="s">
-        <v>258</v>
-      </c>
       <c r="L83" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3514,11 +3733,8 @@
       <c r="F84" t="s">
         <v>187</v>
       </c>
-      <c r="J84" t="s">
-        <v>258</v>
-      </c>
       <c r="L84" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3534,11 +3750,8 @@
       <c r="F85" t="s">
         <v>188</v>
       </c>
-      <c r="J85" t="s">
-        <v>258</v>
-      </c>
       <c r="L85" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3557,11 +3770,8 @@
       <c r="F86" t="s">
         <v>189</v>
       </c>
-      <c r="J86" t="s">
-        <v>258</v>
-      </c>
       <c r="L86" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3580,11 +3790,8 @@
       <c r="F87" t="s">
         <v>190</v>
       </c>
-      <c r="J87" t="s">
-        <v>258</v>
-      </c>
       <c r="L87" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3603,11 +3810,8 @@
       <c r="F88" t="s">
         <v>191</v>
       </c>
-      <c r="J88" t="s">
-        <v>258</v>
-      </c>
       <c r="L88" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3626,11 +3830,8 @@
       <c r="F89" t="s">
         <v>192</v>
       </c>
-      <c r="J89" t="s">
-        <v>258</v>
-      </c>
       <c r="L89" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3649,11 +3850,8 @@
       <c r="F90" t="s">
         <v>193</v>
       </c>
-      <c r="J90" t="s">
-        <v>258</v>
-      </c>
       <c r="L90" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3672,11 +3870,8 @@
       <c r="F91" t="s">
         <v>194</v>
       </c>
-      <c r="J91" t="s">
-        <v>258</v>
-      </c>
       <c r="L91" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3695,11 +3890,8 @@
       <c r="F92" t="s">
         <v>195</v>
       </c>
-      <c r="J92" t="s">
-        <v>258</v>
-      </c>
       <c r="L92" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3718,11 +3910,8 @@
       <c r="F93" t="s">
         <v>196</v>
       </c>
-      <c r="J93" t="s">
-        <v>258</v>
-      </c>
       <c r="L93" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3741,11 +3930,8 @@
       <c r="F94" t="s">
         <v>197</v>
       </c>
-      <c r="J94" t="s">
-        <v>258</v>
-      </c>
       <c r="L94" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3764,11 +3950,8 @@
       <c r="F95" t="s">
         <v>198</v>
       </c>
-      <c r="J95" t="s">
-        <v>258</v>
-      </c>
       <c r="L95" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3787,11 +3970,8 @@
       <c r="F96" t="s">
         <v>199</v>
       </c>
-      <c r="J96" t="s">
-        <v>258</v>
-      </c>
       <c r="L96" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3810,11 +3990,8 @@
       <c r="F97" t="s">
         <v>200</v>
       </c>
-      <c r="J97" t="s">
-        <v>258</v>
-      </c>
       <c r="L97" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3833,11 +4010,8 @@
       <c r="F98" t="s">
         <v>201</v>
       </c>
-      <c r="J98" t="s">
-        <v>258</v>
-      </c>
       <c r="L98" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -3856,11 +4030,8 @@
       <c r="F99" t="s">
         <v>202</v>
       </c>
-      <c r="J99" t="s">
-        <v>258</v>
-      </c>
       <c r="L99" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -3879,11 +4050,8 @@
       <c r="F100" t="s">
         <v>203</v>
       </c>
-      <c r="J100" t="s">
-        <v>258</v>
-      </c>
       <c r="L100" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -3902,11 +4070,8 @@
       <c r="F101" t="s">
         <v>204</v>
       </c>
-      <c r="J101" t="s">
-        <v>258</v>
-      </c>
       <c r="L101" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -3925,11 +4090,8 @@
       <c r="G102" t="s">
         <v>228</v>
       </c>
-      <c r="J102" t="s">
-        <v>258</v>
-      </c>
       <c r="L102" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -3948,11 +4110,8 @@
       <c r="G103" t="s">
         <v>228</v>
       </c>
-      <c r="J103" t="s">
-        <v>258</v>
-      </c>
       <c r="L103" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -3971,11 +4130,8 @@
       <c r="G104" t="s">
         <v>228</v>
       </c>
-      <c r="J104" t="s">
-        <v>258</v>
-      </c>
       <c r="L104" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -3994,11 +4150,8 @@
       <c r="G105" t="s">
         <v>228</v>
       </c>
-      <c r="J105" t="s">
-        <v>258</v>
-      </c>
       <c r="L105" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4017,11 +4170,8 @@
       <c r="G106" t="s">
         <v>228</v>
       </c>
-      <c r="J106" t="s">
-        <v>258</v>
-      </c>
       <c r="L106" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4036,9 +4186,6 @@
       </c>
       <c r="F107" t="s">
         <v>210</v>
-      </c>
-      <c r="J107" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department.xlsx
+++ b/helper/Department.xlsx
@@ -379,7 +379,7 @@
     <t>yu_huang6</t>
   </si>
   <si>
-    <t>moritz_wefelscheid,lukas_storch, tino_tezel</t>
+    <t>moritz_wefelscheid,lukas_storch, tino_tezel, kimberley_addison,anna_eckmann,nicola_wessely,maximilian_prussky,rima_dressler</t>
   </si>
   <si>
     <t>finn_xue, syang_liu,robbie_maes, lovepreet_singh</t>
@@ -655,7 +655,7 @@
     <t>chengguo_shi</t>
   </si>
   <si>
-    <t>moritz_wefelscheid</t>
+    <t>moritz_wefelscheid, beyhan_karalar,manuel_golling</t>
   </si>
   <si>
     <t>finn_xue</t>
